--- a/InputData/elec/FPC/Flexibility Point Calculations.xlsx
+++ b/InputData/elec/FPC/Flexibility Point Calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="36" windowWidth="24912" windowHeight="12072"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="24915" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
   <si>
     <t>Source:</t>
   </si>
@@ -286,8 +286,50 @@
     <t>Transmission Connectivity Coefficient</t>
   </si>
   <si>
+    <t>(It is true that the RE-ITI scenario includes some curtailment, but this</t>
+  </si>
+  <si>
+    <t>is deemed economically best in NREL's model, so we exclude it</t>
+  </si>
+  <si>
+    <t>from the TCC estimate, since TCC should be calculated based on what</t>
+  </si>
+  <si>
+    <t>transmission actually would be built to support a given RE capacity,</t>
+  </si>
+  <si>
+    <t>not what would be built with the goal of eliminating all curtailment.)</t>
+  </si>
+  <si>
+    <t>See "Transmission Connectivity" tab for page and table numbers.</t>
+  </si>
+  <si>
+    <t>FPC Transmission Connectivity Coefficient</t>
+  </si>
+  <si>
+    <t>to that of pumped hydro.</t>
+  </si>
+  <si>
+    <t>All years</t>
+  </si>
+  <si>
+    <t>transmission connectivity coefficient (TCC).  We assume this coefficient</t>
+  </si>
+  <si>
+    <t>of connectivity, rather than a higher or lower level of connectivity than</t>
+  </si>
+  <si>
+    <t>renewables enjoy today.)</t>
+  </si>
+  <si>
+    <t>applies throughout our model run (i.e. the RE build-out NREL models includes</t>
+  </si>
+  <si>
+    <t>new transmission to provide all of the new renewables with today's level</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">newly build storage is compressed air </t>
+      <t xml:space="preserve">newly built storage is compressed air </t>
     </r>
     <r>
       <rPr>
@@ -312,46 +354,19 @@
     </r>
   </si>
   <si>
-    <t>(It is true that the RE-ITI scenario includes some curtailment, but this</t>
-  </si>
-  <si>
-    <t>is deemed economically best in NREL's model, so we exclude it</t>
-  </si>
-  <si>
-    <t>from the TCC estimate, since TCC should be calculated based on what</t>
-  </si>
-  <si>
-    <t>transmission actually would be built to support a given RE capacity,</t>
-  </si>
-  <si>
-    <t>not what would be built with the goal of eliminating all curtailment.)</t>
-  </si>
-  <si>
-    <t>See "Transmission Connectivity" tab for page and table numbers.</t>
-  </si>
-  <si>
-    <t>FPC Transmission Connectivity Coefficient</t>
-  </si>
-  <si>
-    <t>to that of pumped hydro.</t>
-  </si>
-  <si>
-    <t>All years</t>
-  </si>
-  <si>
-    <t>transmission connectivity coefficient (TCC).  We assume this coefficient</t>
-  </si>
-  <si>
-    <t>of connectivity, rather than a higher or lower level of connectivity than</t>
-  </si>
-  <si>
-    <t>renewables enjoy today.)</t>
-  </si>
-  <si>
-    <t>applies throughout our model run (i.e. the RE build-out NREL models includes</t>
-  </si>
-  <si>
-    <t>new transmission to provide all of the new renewables with today's level</t>
+    <t>We choose to omit offshore wind from the total, because offshore wind</t>
+  </si>
+  <si>
+    <t>is likely to need less flexibility backup due to windier conditions, and</t>
+  </si>
+  <si>
+    <t>insofar as it does need flexibility backup, it will likely be at different</t>
+  </si>
+  <si>
+    <t>times of the day than onshore wind, so it would not be appropriate</t>
+  </si>
+  <si>
+    <t>to sum them.</t>
   </si>
 </sst>
 </file>
@@ -774,37 +789,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,33 +830,32 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>46</v>
       </c>
@@ -850,72 +864,72 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
@@ -923,7 +937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
@@ -931,7 +945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
@@ -939,7 +953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
@@ -947,37 +961,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -998,12 +1012,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1020,7 +1034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1035,7 +1049,7 @@
         <v>7.7837837837837833</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1050,7 +1064,7 @@
         <v>7.7837837837837833</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -1065,7 +1079,7 @@
         <v>4.7058823529411766</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -1080,7 +1094,7 @@
         <v>3.2505643340857793</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1097,7 +1111,7 @@
         <v>3.9782233435134779</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1123,111 +1137,111 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.109375" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1238,7 +1252,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -1249,7 +1263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -1260,7 +1274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -1271,118 +1285,144 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>65</v>
       </c>
-      <c r="B30">
-        <f>MAX(B23,SUM(B24:B25))*10^3</f>
-        <v>461000</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B36">
+        <f>MAX(B23,B24)*10^3</f>
+        <v>349000</v>
+      </c>
+      <c r="C36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="38" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="39" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="41" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="43" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B38">
+      <c r="B44">
         <v>122</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B51" s="4">
         <f>'Flexibility Points'!D2</f>
         <v>7.7837837837837833</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B52" s="4">
         <f>'Flexibility Points'!D6</f>
         <v>3.9782233435134779</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="55" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>79</v>
       </c>
-      <c r="B49">
-        <f>((B22*B45)+(B38*B46))*10^3</f>
+      <c r="B55">
+        <f>((B22*B51)+(B44*B52))*10^3</f>
         <v>1878640.5452059417</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="14">
-        <f>B30/B49</f>
-        <v>0.24539021111644535</v>
+      <c r="B57" s="14">
+        <f>B36/B55</f>
+        <v>0.18577263271071459</v>
       </c>
     </row>
   </sheetData>
@@ -1399,10 +1439,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1433,10 +1473,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1467,10 +1507,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1541,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -1535,7 +1575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -1544,11 +1584,11 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="15">
-        <f>'Transmission Connectivity'!B51</f>
-        <v>0.24539021111644535</v>
+        <f>'Transmission Connectivity'!B57</f>
+        <v>0.18577263271071459</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/FPC/Flexibility Point Calculations.xlsx
+++ b/InputData/elec/FPC/Flexibility Point Calculations.xlsx
@@ -9,19 +9,27 @@
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Flexibility Points" sheetId="2" r:id="rId2"/>
-    <sheet name="Transmission Connectivity" sheetId="8" r:id="rId3"/>
-    <sheet name="FPC-FPPpUNGPC" sheetId="3" r:id="rId4"/>
-    <sheet name="FPC-FPPpUPH" sheetId="4" r:id="rId5"/>
-    <sheet name="FPC-FPPpUNHES" sheetId="6" r:id="rId6"/>
-    <sheet name="FPC-FPPpUDRC" sheetId="5" r:id="rId7"/>
-    <sheet name="FPC-TCC" sheetId="7" r:id="rId8"/>
+    <sheet name="FPC-FPPpUNGPC" sheetId="3" r:id="rId3"/>
+    <sheet name="FPC-FPPpUPH" sheetId="4" r:id="rId4"/>
+    <sheet name="FPC-FPPpUBS" sheetId="6" r:id="rId5"/>
+    <sheet name="FPC-FPPpUDRC" sheetId="5" r:id="rId6"/>
+    <sheet name="FPC-FPPpUTCaMRB" sheetId="16" r:id="rId7"/>
+    <sheet name="Transmission Connectivity" sheetId="8" r:id="rId8"/>
+    <sheet name="FPC-TCC" sheetId="7" r:id="rId9"/>
+    <sheet name="E3 Data" sheetId="9" r:id="rId10"/>
+    <sheet name="LCGS Data" sheetId="10" r:id="rId11"/>
+    <sheet name="CA Interties" sheetId="12" r:id="rId12"/>
+    <sheet name="Curtailment Calcs" sheetId="11" r:id="rId13"/>
+    <sheet name="FPC-CSOC" sheetId="13" r:id="rId14"/>
+    <sheet name="FPC-CFOC" sheetId="14" r:id="rId15"/>
+    <sheet name="FPC-CZOC" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="278">
   <si>
     <t>Source:</t>
   </si>
@@ -41,9 +49,6 @@
     <t>PNNL estimated the quantity of various technologies that would be necessary to satisfy</t>
   </si>
   <si>
-    <t>the balancing requirements to integrate 14.4 GW of wind into the Pacific Northwest in 2019.</t>
-  </si>
-  <si>
     <t>We use their testcases which each featured a single technology, to get a sense of how much</t>
   </si>
   <si>
@@ -95,9 +100,6 @@
     <t>GW Needed</t>
   </si>
   <si>
-    <t>GW Wind Integrated</t>
-  </si>
-  <si>
     <t>CT (natural gas combustion turbine)</t>
   </si>
   <si>
@@ -143,16 +145,10 @@
     <t>Pumped Hydro</t>
   </si>
   <si>
-    <t>Non-Hydro Elec Storage</t>
-  </si>
-  <si>
     <t>FPC Flexibility Points Provided Per Unit NG Peaker Capacity</t>
   </si>
   <si>
     <t>FPC Flexibility Points Provided per Unit Pumped Hydro</t>
-  </si>
-  <si>
-    <t>FPC Flexibility Points Provided per Unit Non Hydro Elec Storage</t>
   </si>
   <si>
     <t>FPC Flexibility Points Provided per Unit Demand Response Capacity</t>
@@ -277,9 +273,6 @@
     <t>Flexibility points per NG CT</t>
   </si>
   <si>
-    <t>Flexibility points per unit pumped hydro</t>
-  </si>
-  <si>
     <t>Total flexibility points provided</t>
   </si>
   <si>
@@ -305,9 +298,6 @@
   </si>
   <si>
     <t>FPC Transmission Connectivity Coefficient</t>
-  </si>
-  <si>
-    <t>to that of pumped hydro.</t>
   </si>
   <si>
     <t>All years</t>
@@ -368,16 +358,566 @@
   <si>
     <t>to sum them.</t>
   </si>
+  <si>
+    <t>the balancing requirements to integrate an additional 11.1 GW of wind into the Pacific Northwest in 2019.</t>
+  </si>
+  <si>
+    <t>Interruptiple Load (DR)</t>
+  </si>
+  <si>
+    <t>Flexibility points per Unit DR</t>
+  </si>
+  <si>
+    <t>to that of chemical batteries (dedicated use for FP provision).</t>
+  </si>
+  <si>
+    <t>Flexibility points per unit batteries</t>
+  </si>
+  <si>
+    <t>From RE Futures Scenario Viewer (http://www.nrel.gov/analysis/re_futures/data_viewer/)</t>
+  </si>
+  <si>
+    <t>GW Additional Wind Integrated</t>
+  </si>
+  <si>
+    <t>Table 23 (Page 85)</t>
+  </si>
+  <si>
+    <t>Thermal Fleet Composition (MW)</t>
+  </si>
+  <si>
+    <t>Thermal Resource</t>
+  </si>
+  <si>
+    <t>2012 Cap</t>
+  </si>
+  <si>
+    <t>2030 Cap</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Cogeneration</t>
+  </si>
+  <si>
+    <t>Gas - Combined Cycle</t>
+  </si>
+  <si>
+    <t>Gas - Combustion Turbine</t>
+  </si>
+  <si>
+    <t>Gas - Steam Turbine</t>
+  </si>
+  <si>
+    <t>Gas - Internal Combustion</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Table 11 (Page 55)</t>
+  </si>
+  <si>
+    <t>2030 Renewable Capacity by Resource Type and Scenario (MW)</t>
+  </si>
+  <si>
+    <t>33% RPS</t>
+  </si>
+  <si>
+    <t>40% RPS</t>
+  </si>
+  <si>
+    <t>50% RPS Large Solar</t>
+  </si>
+  <si>
+    <t>50% RPS Diverse</t>
+  </si>
+  <si>
+    <t>50% RPS Small Solar</t>
+  </si>
+  <si>
+    <t>50% RPS Rooftop Solar</t>
+  </si>
+  <si>
+    <t>Utility RPS Procurement</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Solar PV - Rooftop</t>
+  </si>
+  <si>
+    <t>Solar PV - Small</t>
+  </si>
+  <si>
+    <t>Solar PV - Large</t>
+  </si>
+  <si>
+    <t>Solar Thermal</t>
+  </si>
+  <si>
+    <t>Wind (In State)</t>
+  </si>
+  <si>
+    <t>Wind (Out-of-State)</t>
+  </si>
+  <si>
+    <t>Subtotal, Utility Gen</t>
+  </si>
+  <si>
+    <t>Customer Renewable Generation</t>
+  </si>
+  <si>
+    <t>Solar PV = Rooftop, net energy metered</t>
+  </si>
+  <si>
+    <t>Subtotal, Customer Gen</t>
+  </si>
+  <si>
+    <t>Total Renewable Generation</t>
+  </si>
+  <si>
+    <t>Total, All Sources</t>
+  </si>
+  <si>
+    <t>Table 10 (Page 54)</t>
+  </si>
+  <si>
+    <t>2030 Renewable Generation by Resource Type and Scenario (MW)</t>
+  </si>
+  <si>
+    <t>Table 26 (Page 107)</t>
+  </si>
+  <si>
+    <t>Overgeneration Statistics for Select Scenarios</t>
+  </si>
+  <si>
+    <t>Total Overgeneration</t>
+  </si>
+  <si>
+    <t>in GWh/yr</t>
+  </si>
+  <si>
+    <t>as % of available RPS-qualifying energy</t>
+  </si>
+  <si>
+    <t>Overgeneration Frequency</t>
+  </si>
+  <si>
+    <t>in hours/yr</t>
+  </si>
+  <si>
+    <t>percent of hours</t>
+  </si>
+  <si>
+    <t>Extreme Overgeneration Events</t>
+  </si>
+  <si>
+    <t>99th percentile</t>
+  </si>
+  <si>
+    <t>Maximum observed</t>
+  </si>
+  <si>
+    <t>Table 25 (Page 105)</t>
+  </si>
+  <si>
+    <t>Annual Generation Mix under Three Scenarios</t>
+  </si>
+  <si>
+    <t>Suppy-Side Equivalent Generation (GWh/yr)</t>
+  </si>
+  <si>
+    <t>Conventional fossil resources</t>
+  </si>
+  <si>
+    <t>Nuclear + Hydro</t>
+  </si>
+  <si>
+    <t>RPS Renewables</t>
+  </si>
+  <si>
+    <t>Non-RPS Rooftop Solar PV</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t>Overgeneration</t>
+  </si>
+  <si>
+    <t>Pumped Storage (Page B-33)</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Cap (MW)</t>
+  </si>
+  <si>
+    <t>Source for Capacity Value (not provided in E3 paper)</t>
+  </si>
+  <si>
+    <t>Helms (3 units)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Helms_Pumped_Storage_Plant</t>
+  </si>
+  <si>
+    <t>Eastwood</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Big_Creek_Hydroelectric_Project</t>
+  </si>
+  <si>
+    <t>Hodges-Olivehain</t>
+  </si>
+  <si>
+    <t>http://www.sdcwa.org/lake-hodges-projects</t>
+  </si>
+  <si>
+    <t>Castaic</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Castaic_Power_Plant</t>
+  </si>
+  <si>
+    <t>Curtailment of Renewable Energy Serving CA Load (Slide 56)</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Accelerated</t>
+  </si>
+  <si>
+    <t>Target, Fewer Mitigation Options</t>
+  </si>
+  <si>
+    <t>Target, Fewer Mitigation Options, Import Constraint</t>
+  </si>
+  <si>
+    <t>Comparison between Scenarios (Page 11, Table 4) and Sensitivity Case Assumptions (Page 13, Table 7)</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>Wholesale PV</t>
+  </si>
+  <si>
+    <t>Customer-sited PV</t>
+  </si>
+  <si>
+    <t>Small Hydro</t>
+  </si>
+  <si>
+    <t>Total renewable generation</t>
+  </si>
+  <si>
+    <t>Large hydro</t>
+  </si>
+  <si>
+    <t>Gas CC</t>
+  </si>
+  <si>
+    <t>Gas CT</t>
+  </si>
+  <si>
+    <t>CHP-QF</t>
+  </si>
+  <si>
+    <t>Total other generation</t>
+  </si>
+  <si>
+    <t>Total storage</t>
+  </si>
+  <si>
+    <t>Total EE</t>
+  </si>
+  <si>
+    <t>Total DR</t>
+  </si>
+  <si>
+    <t>Transmission Additions</t>
+  </si>
+  <si>
+    <t>Storage Breakdown by Scenario (Page 10, Table 3)</t>
+  </si>
+  <si>
+    <t>Baseline (GW)</t>
+  </si>
+  <si>
+    <t>Target (GW)</t>
+  </si>
+  <si>
+    <t>Accelerated (GW)</t>
+  </si>
+  <si>
+    <t>Compressed Air</t>
+  </si>
+  <si>
+    <t>Unspecified (assumed to be pumped hydro)</t>
+  </si>
+  <si>
+    <t>Calculated Other Storage (assumed to be pumped hydro)</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>E3 33% RPS</t>
+  </si>
+  <si>
+    <t>E3 40% RPS</t>
+  </si>
+  <si>
+    <t>E3 50% RPS Large Solar</t>
+  </si>
+  <si>
+    <t>LGCS Baseline</t>
+  </si>
+  <si>
+    <t>LGCS Target</t>
+  </si>
+  <si>
+    <t>LGCS Accelerated</t>
+  </si>
+  <si>
+    <t>FP from NG Peakers</t>
+  </si>
+  <si>
+    <t>FP from DR</t>
+  </si>
+  <si>
+    <t>FP from Pumped Hydro</t>
+  </si>
+  <si>
+    <t>FP from Battery or Compressed Air Storage</t>
+  </si>
+  <si>
+    <t>FP from Import/Export Cap</t>
+  </si>
+  <si>
+    <t>Total FP Provided</t>
+  </si>
+  <si>
+    <t>Usable FP (after TCC)</t>
+  </si>
+  <si>
+    <t>Curtailment Perc (Solar PV)</t>
+  </si>
+  <si>
+    <t>FP Consumed (Solar PV)</t>
+  </si>
+  <si>
+    <t>Perc FP Use</t>
+  </si>
+  <si>
+    <t>Curtailment Perc</t>
+  </si>
+  <si>
+    <t>WECC Path Number</t>
+  </si>
+  <si>
+    <t>Capacity (in the direction of California) (MW)</t>
+  </si>
+  <si>
+    <t>Page Number</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Version for Trendline Creation</t>
+  </si>
+  <si>
+    <t>Energy + Environmental Economics</t>
+  </si>
+  <si>
+    <t>Investigating a Higher Renewables Portfolio Standard in California</t>
+  </si>
+  <si>
+    <t>https://ethree.com/documents/E3_Final_RPS_Report_2014_01_06_with_appendices.pdf</t>
+  </si>
+  <si>
+    <t>See "E3 Data" tab for page and table numbers.</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory, GE Energy Consulting, and JBS Energy</t>
+  </si>
+  <si>
+    <t>Low Carbon Grid Study</t>
+  </si>
+  <si>
+    <t>Curtailment Percentage at FP Usage Rates (three out of six scenarios we used)</t>
+  </si>
+  <si>
+    <t>http://lowcarbongrid2030.org/wp-content/uploads/2014/10/LCGS-Workpapers.pdf</t>
+  </si>
+  <si>
+    <t>http://lowcarbongrid2030.org/wp-content/uploads/2014/10/LCGS_PhaseI_NRELslides.pdf</t>
+  </si>
+  <si>
+    <t>Slide 57</t>
+  </si>
+  <si>
+    <t>Pages 10-11, Tables 3 and 4</t>
+  </si>
+  <si>
+    <t>Transmission Capacity Across California Border (contributor to FP total for scenarios above)</t>
+  </si>
+  <si>
+    <t>Western Electricity Coordinating Council</t>
+  </si>
+  <si>
+    <t>2013 WECC Path Reports</t>
+  </si>
+  <si>
+    <t>https://www.wecc.biz/Reliability/TAS_PathReports_Combined_FINAL.pdf</t>
+  </si>
+  <si>
+    <t>See "CA Interties" tab for page numbers.</t>
+  </si>
+  <si>
+    <t>FPC Curtailment Second Order Coeff</t>
+  </si>
+  <si>
+    <t>FPC Curtailment First Order Coeff</t>
+  </si>
+  <si>
+    <t>FPC Curtailment Zeroth Order Coeff</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Second Order Term</t>
+  </si>
+  <si>
+    <t>Procedure for Curtailment Coefficient Calculations</t>
+  </si>
+  <si>
+    <t>We wish to establish the reduction in generation from a variable source as that source runs out of</t>
+  </si>
+  <si>
+    <t>available, usable flexibility points.  We do this by examining six scenarios for California</t>
+  </si>
+  <si>
+    <t>(three from E3, three from the Low Carbon Grid Study) that provide the necessary information to</t>
+  </si>
+  <si>
+    <t>establish data points: curtailment percentage, capacity of the curtailed resource, and capacity of</t>
+  </si>
+  <si>
+    <t>flexibility point-providing technologies.  (The studies lacked information about import/export</t>
+  </si>
+  <si>
+    <t>capacity, which also provides flexibility points, so we use a source from the Western Electricity</t>
+  </si>
+  <si>
+    <t>Coordinating Council for this and add the flexibility points to all six scenarios.)</t>
+  </si>
+  <si>
+    <t>Once we have our six data points, we apply a curve fit to create a second-order polynomial</t>
+  </si>
+  <si>
+    <t>equation, which we use in the model.  We must provide the numbers as three separate</t>
+  </si>
+  <si>
+    <t>values (in separate CSV files), because Vensim has no way to import an entire formula.</t>
+  </si>
+  <si>
+    <t>All curtailment in these scenarios is solar PV.  We assume that if wind were to run out of</t>
+  </si>
+  <si>
+    <t>flexibility points, its curtailment curve would follow a similar shape to that of solar PV.</t>
+  </si>
+  <si>
+    <t>Remember that if you change any of the numbers elsewhere in this spreadsheet (including</t>
+  </si>
+  <si>
+    <t>on the "Flexibility Points" and "Transmission Connectivity" tabs), you will likely have to manually</t>
+  </si>
+  <si>
+    <t>recopy the numbers from the trendline on the lower graph on the "Curtailment Calcs" tab to the</t>
+  </si>
+  <si>
+    <t>three Coefficient export tabs, as you can't refer to trendline coefficients via a formula in Excel.</t>
+  </si>
+  <si>
+    <t>FPC Flexibility Points Provided per Unit Transmission Capacity Across Modeled Region Border</t>
+  </si>
+  <si>
+    <t>Transmission across Modeled Region Border</t>
+  </si>
+  <si>
+    <t>For flexibility points from transmission capacity across the modeled region border, we assume the</t>
+  </si>
+  <si>
+    <t>limiting factor in FP provision is transmission line capacity (e.g. other regions have power sources</t>
+  </si>
+  <si>
+    <t>they could send, at some price, if power were needed in the modeled region and adequate</t>
+  </si>
+  <si>
+    <t>transmission lines were in place).  So, we assume one flexibility point per MW of cross-border</t>
+  </si>
+  <si>
+    <t>transmission capacity.</t>
+  </si>
+  <si>
+    <t>First Order Term</t>
+  </si>
+  <si>
+    <t>Zeroth Order Term</t>
+  </si>
+  <si>
+    <t>FPC Flexibility Points Provided per Unit Battery Storage</t>
+  </si>
+  <si>
+    <t>Battery Storage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,8 +966,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,8 +993,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -455,12 +1026,133 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -483,10 +1175,122 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,6 +1300,523 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>E3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Curtailment Calcs'!$B$18:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0560384202117195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3822955148109142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.848446793233596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Curtailment Calcs'!$C$18:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.1893058553227041E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4270747740345111E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18340437869098253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LCGS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Curtailment Calcs'!$B$21:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.1361474701063279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.262436277241707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3609911962031296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Curtailment Calcs'!$C$21:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1052631578947366E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7307692307692308E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="209431936"/>
+        <c:axId val="209906688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="209431936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Percent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> of Flexibility Points Used</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209906688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="209906688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Percent Curtailment</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209431936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0776710247056141E-2"/>
+                  <c:y val="0.13032535138092996"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00000" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Curtailment Calcs'!$B$27:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3822955148109142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.848446793233596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1361474701063279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.262436277241707</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3609911962031296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Curtailment Calcs'!$C$27:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4270747740345111E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18340437869098253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1052631578947366E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7307692307692308E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="208932864"/>
+        <c:axId val="208934784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="208932864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Percent of Flexibility Points Used</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="208934784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="208934784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Percent Curtailment</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="208932864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -785,224 +2106,3119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="82" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="82" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="82" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="82" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="83" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="84" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+      <c r="C58" t="s">
         <v>12</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+      <c r="C59" t="s">
         <v>14</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>36</v>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="B18" r:id="rId2"/>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="26">
+        <v>5473</v>
+      </c>
+      <c r="C4" s="26">
+        <v>3323</v>
+      </c>
+      <c r="D4" s="27">
+        <v>-2150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1652</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27">
+        <v>-1652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="26">
+        <v>2779</v>
+      </c>
+      <c r="C6" s="26">
+        <v>2779</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="26">
+        <v>16568</v>
+      </c>
+      <c r="C7" s="26">
+        <v>23928</v>
+      </c>
+      <c r="D7" s="27">
+        <v>7360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="26">
+        <v>5745</v>
+      </c>
+      <c r="C8" s="26">
+        <v>9545</v>
+      </c>
+      <c r="D8" s="27">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="26">
+        <v>15214</v>
+      </c>
+      <c r="C9" s="26">
+        <v>30</v>
+      </c>
+      <c r="D9" s="27">
+        <v>-15184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="26">
+        <v>213</v>
+      </c>
+      <c r="C10" s="26">
+        <v>213</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="29">
+        <v>47644</v>
+      </c>
+      <c r="C11" s="29">
+        <v>39816</v>
+      </c>
+      <c r="D11" s="30">
+        <v>-7827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="26">
+        <v>397</v>
+      </c>
+      <c r="C17" s="26">
+        <v>397</v>
+      </c>
+      <c r="D17" s="26">
+        <v>397</v>
+      </c>
+      <c r="E17" s="26">
+        <v>724</v>
+      </c>
+      <c r="F17" s="26">
+        <v>397</v>
+      </c>
+      <c r="G17" s="27">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="34">
+        <v>1243</v>
+      </c>
+      <c r="C18" s="34">
+        <v>1243</v>
+      </c>
+      <c r="D18" s="34">
+        <v>1243</v>
+      </c>
+      <c r="E18" s="34">
+        <v>1550</v>
+      </c>
+      <c r="F18" s="34">
+        <v>1243</v>
+      </c>
+      <c r="G18" s="35">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="34">
+        <v>1950</v>
+      </c>
+      <c r="C19" s="34">
+        <v>1950</v>
+      </c>
+      <c r="D19" s="34">
+        <v>1950</v>
+      </c>
+      <c r="E19" s="34">
+        <v>2531</v>
+      </c>
+      <c r="F19" s="34">
+        <v>1950</v>
+      </c>
+      <c r="G19" s="35">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="34">
+        <v>1282</v>
+      </c>
+      <c r="C20" s="34">
+        <v>1282</v>
+      </c>
+      <c r="D20" s="34">
+        <v>1282</v>
+      </c>
+      <c r="E20" s="34">
+        <v>1282</v>
+      </c>
+      <c r="F20" s="34">
+        <v>1282</v>
+      </c>
+      <c r="G20" s="35">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="26">
+        <v>0</v>
+      </c>
+      <c r="C21" s="26">
+        <v>629</v>
+      </c>
+      <c r="D21" s="34">
+        <v>1529</v>
+      </c>
+      <c r="E21" s="34">
+        <v>1529</v>
+      </c>
+      <c r="F21" s="34">
+        <v>1529</v>
+      </c>
+      <c r="G21" s="35">
+        <v>15286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="34">
+        <v>3039</v>
+      </c>
+      <c r="C22" s="34">
+        <v>4192</v>
+      </c>
+      <c r="D22" s="34">
+        <v>5839</v>
+      </c>
+      <c r="E22" s="34">
+        <v>5839</v>
+      </c>
+      <c r="F22" s="34">
+        <v>13308</v>
+      </c>
+      <c r="G22" s="35">
+        <v>4906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="34">
+        <v>9437</v>
+      </c>
+      <c r="C23" s="34">
+        <v>13672</v>
+      </c>
+      <c r="D23" s="34">
+        <v>19722</v>
+      </c>
+      <c r="E23" s="34">
+        <v>12008</v>
+      </c>
+      <c r="F23" s="34">
+        <v>12865</v>
+      </c>
+      <c r="G23" s="35">
+        <v>12865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="34">
+        <v>1555</v>
+      </c>
+      <c r="C24" s="34">
+        <v>1555</v>
+      </c>
+      <c r="D24" s="34">
+        <v>1555</v>
+      </c>
+      <c r="E24" s="34">
+        <v>3516</v>
+      </c>
+      <c r="F24" s="34">
+        <v>1555</v>
+      </c>
+      <c r="G24" s="35">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="34">
+        <v>7613</v>
+      </c>
+      <c r="C25" s="34">
+        <v>8918</v>
+      </c>
+      <c r="D25" s="34">
+        <v>10781</v>
+      </c>
+      <c r="E25" s="34">
+        <v>9989</v>
+      </c>
+      <c r="F25" s="34">
+        <v>10781</v>
+      </c>
+      <c r="G25" s="35">
+        <v>10781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="34">
+        <v>1847</v>
+      </c>
+      <c r="C26" s="34">
+        <v>1847</v>
+      </c>
+      <c r="D26" s="34">
+        <v>1847</v>
+      </c>
+      <c r="E26" s="34">
+        <v>3966</v>
+      </c>
+      <c r="F26" s="34">
+        <v>1847</v>
+      </c>
+      <c r="G26" s="35">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="34">
+        <v>28363</v>
+      </c>
+      <c r="C27" s="34">
+        <v>35685</v>
+      </c>
+      <c r="D27" s="34">
+        <v>46145</v>
+      </c>
+      <c r="E27" s="34">
+        <v>42935</v>
+      </c>
+      <c r="F27" s="34">
+        <v>46757</v>
+      </c>
+      <c r="G27" s="35">
+        <v>52113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="34">
+        <v>7000</v>
+      </c>
+      <c r="C29" s="34">
+        <v>7000</v>
+      </c>
+      <c r="D29" s="34">
+        <v>7000</v>
+      </c>
+      <c r="E29" s="34">
+        <v>7000</v>
+      </c>
+      <c r="F29" s="34">
+        <v>7000</v>
+      </c>
+      <c r="G29" s="35">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="34">
+        <v>7000</v>
+      </c>
+      <c r="C30" s="34">
+        <v>7000</v>
+      </c>
+      <c r="D30" s="34">
+        <v>7000</v>
+      </c>
+      <c r="E30" s="34">
+        <v>7000</v>
+      </c>
+      <c r="F30" s="34">
+        <v>7000</v>
+      </c>
+      <c r="G30" s="35">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="36">
+        <v>35363</v>
+      </c>
+      <c r="C32" s="36">
+        <v>42685</v>
+      </c>
+      <c r="D32" s="36">
+        <v>53145</v>
+      </c>
+      <c r="E32" s="36">
+        <v>49935</v>
+      </c>
+      <c r="F32" s="36">
+        <v>53757</v>
+      </c>
+      <c r="G32" s="37">
+        <v>59113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="38"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="34">
+        <v>2133</v>
+      </c>
+      <c r="C38" s="34">
+        <v>2133</v>
+      </c>
+      <c r="D38" s="34">
+        <v>2133</v>
+      </c>
+      <c r="E38" s="34">
+        <v>4422</v>
+      </c>
+      <c r="F38" s="34">
+        <v>2133</v>
+      </c>
+      <c r="G38" s="35">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="34">
+        <v>7465</v>
+      </c>
+      <c r="C39" s="34">
+        <v>7465</v>
+      </c>
+      <c r="D39" s="34">
+        <v>7465</v>
+      </c>
+      <c r="E39" s="34">
+        <v>9754</v>
+      </c>
+      <c r="F39" s="34">
+        <v>7465</v>
+      </c>
+      <c r="G39" s="35">
+        <v>7465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="34">
+        <v>16231</v>
+      </c>
+      <c r="C40" s="34">
+        <v>16231</v>
+      </c>
+      <c r="D40" s="34">
+        <v>16231</v>
+      </c>
+      <c r="E40" s="34">
+        <v>20811</v>
+      </c>
+      <c r="F40" s="34">
+        <v>16231</v>
+      </c>
+      <c r="G40" s="35">
+        <v>16231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="34">
+        <v>4525</v>
+      </c>
+      <c r="C41" s="34">
+        <v>4525</v>
+      </c>
+      <c r="D41" s="34">
+        <v>4525</v>
+      </c>
+      <c r="E41" s="34">
+        <v>4525</v>
+      </c>
+      <c r="F41" s="34">
+        <v>4525</v>
+      </c>
+      <c r="G41" s="35">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="26">
+        <v>0</v>
+      </c>
+      <c r="C42" s="26">
+        <v>943</v>
+      </c>
+      <c r="D42" s="34">
+        <v>2290</v>
+      </c>
+      <c r="E42" s="34">
+        <v>2290</v>
+      </c>
+      <c r="F42" s="34">
+        <v>2290</v>
+      </c>
+      <c r="G42" s="35">
+        <v>22898</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="34">
+        <v>6536</v>
+      </c>
+      <c r="C43" s="34">
+        <v>9365</v>
+      </c>
+      <c r="D43" s="34">
+        <v>13405</v>
+      </c>
+      <c r="E43" s="34">
+        <v>13405</v>
+      </c>
+      <c r="F43" s="34">
+        <v>31724</v>
+      </c>
+      <c r="G43" s="35">
+        <v>11116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="34">
+        <v>22190</v>
+      </c>
+      <c r="C44" s="34">
+        <v>33504</v>
+      </c>
+      <c r="D44" s="34">
+        <v>49667</v>
+      </c>
+      <c r="E44" s="34">
+        <v>29059</v>
+      </c>
+      <c r="F44" s="34">
+        <v>31349</v>
+      </c>
+      <c r="G44" s="35">
+        <v>31349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="34">
+        <v>4044</v>
+      </c>
+      <c r="C45" s="34">
+        <v>4044</v>
+      </c>
+      <c r="D45" s="34">
+        <v>4044</v>
+      </c>
+      <c r="E45" s="34">
+        <v>10913</v>
+      </c>
+      <c r="F45" s="34">
+        <v>4044</v>
+      </c>
+      <c r="G45" s="35">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="34">
+        <v>20789</v>
+      </c>
+      <c r="C46" s="34">
+        <v>24561</v>
+      </c>
+      <c r="D46" s="34">
+        <v>29948</v>
+      </c>
+      <c r="E46" s="34">
+        <v>27659</v>
+      </c>
+      <c r="F46" s="34">
+        <v>29948</v>
+      </c>
+      <c r="G46" s="35">
+        <v>29948</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="34">
+        <v>4985</v>
+      </c>
+      <c r="C47" s="34">
+        <v>4985</v>
+      </c>
+      <c r="D47" s="34">
+        <v>4985</v>
+      </c>
+      <c r="E47" s="34">
+        <v>11854</v>
+      </c>
+      <c r="F47" s="34">
+        <v>4985</v>
+      </c>
+      <c r="G47" s="35">
+        <v>4985</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="34">
+        <v>88897</v>
+      </c>
+      <c r="C48" s="34">
+        <v>107755</v>
+      </c>
+      <c r="D48" s="34">
+        <v>134693</v>
+      </c>
+      <c r="E48" s="34">
+        <v>134693</v>
+      </c>
+      <c r="F48" s="34">
+        <v>134693</v>
+      </c>
+      <c r="G48" s="35">
+        <v>134693</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="34">
+        <v>10467</v>
+      </c>
+      <c r="C50" s="34">
+        <v>10467</v>
+      </c>
+      <c r="D50" s="34">
+        <v>10467</v>
+      </c>
+      <c r="E50" s="34">
+        <v>10467</v>
+      </c>
+      <c r="F50" s="34">
+        <v>10467</v>
+      </c>
+      <c r="G50" s="35">
+        <v>10467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="34">
+        <v>10467</v>
+      </c>
+      <c r="C51" s="34">
+        <v>10467</v>
+      </c>
+      <c r="D51" s="34">
+        <v>10467</v>
+      </c>
+      <c r="E51" s="34">
+        <v>10467</v>
+      </c>
+      <c r="F51" s="34">
+        <v>10467</v>
+      </c>
+      <c r="G51" s="35">
+        <v>10467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="33"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="36">
+        <v>99365</v>
+      </c>
+      <c r="C53" s="36">
+        <v>118222</v>
+      </c>
+      <c r="D53" s="36">
+        <v>145160</v>
+      </c>
+      <c r="E53" s="36">
+        <v>145160</v>
+      </c>
+      <c r="F53" s="36">
+        <v>145160</v>
+      </c>
+      <c r="G53" s="37">
+        <v>145160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="38"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+    </row>
+    <row r="57" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
+      <c r="B57" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="26">
+        <v>190</v>
+      </c>
+      <c r="C59" s="34">
+        <v>2000</v>
+      </c>
+      <c r="D59" s="35">
+        <v>12000</v>
+      </c>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="43">
+        <v>2E-3</v>
+      </c>
+      <c r="C60" s="43">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D60" s="44">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="33"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="26">
+        <v>140</v>
+      </c>
+      <c r="C62" s="26">
+        <v>750</v>
+      </c>
+      <c r="D62" s="35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="45">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C63" s="45">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D63" s="46">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="33"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="26">
+        <v>610</v>
+      </c>
+      <c r="C65" s="34">
+        <v>5600</v>
+      </c>
+      <c r="D65" s="35">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="48">
+        <v>6300</v>
+      </c>
+      <c r="C66" s="48">
+        <v>14000</v>
+      </c>
+      <c r="D66" s="49">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="18"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="21"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="34">
+        <v>165000</v>
+      </c>
+      <c r="C71" s="34">
+        <v>148000</v>
+      </c>
+      <c r="D71" s="35">
+        <v>137000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="34">
+        <v>61000</v>
+      </c>
+      <c r="C72" s="34">
+        <v>59000</v>
+      </c>
+      <c r="D72" s="35">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="34">
+        <v>90000</v>
+      </c>
+      <c r="C73" s="34">
+        <v>109000</v>
+      </c>
+      <c r="D73" s="35">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" s="34">
+        <v>11000</v>
+      </c>
+      <c r="C74" s="34">
+        <v>11000</v>
+      </c>
+      <c r="D74" s="35">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="27"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="34">
+        <v>2600</v>
+      </c>
+      <c r="C76" s="34">
+        <v>2900</v>
+      </c>
+      <c r="D76" s="35">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="34">
+        <v>-11000</v>
+      </c>
+      <c r="C77" s="34">
+        <v>-10000</v>
+      </c>
+      <c r="D77" s="35">
+        <v>-9600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="26">
+        <v>-190</v>
+      </c>
+      <c r="C78" s="34">
+        <v>-2000</v>
+      </c>
+      <c r="D78" s="35">
+        <v>-12000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" s="36">
+        <v>320000</v>
+      </c>
+      <c r="C79" s="36">
+        <v>320000</v>
+      </c>
+      <c r="D79" s="37">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="34">
+        <v>1212</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="26">
+        <v>200</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="26">
+        <v>40</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" s="48">
+        <v>1247</v>
+      </c>
+      <c r="C86" s="52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="57">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="57">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E3" s="57">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F3" s="58">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="87"/>
+      <c r="F6" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="88"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="63">
+        <v>1.3</v>
+      </c>
+      <c r="C8" s="64">
+        <v>10</v>
+      </c>
+      <c r="D8" s="63">
+        <v>1.6</v>
+      </c>
+      <c r="E8" s="64">
+        <v>12</v>
+      </c>
+      <c r="F8" s="63">
+        <v>1.6</v>
+      </c>
+      <c r="G8" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="63">
+        <v>2.7</v>
+      </c>
+      <c r="C9" s="64">
+        <v>22</v>
+      </c>
+      <c r="D9" s="63">
+        <v>4.2</v>
+      </c>
+      <c r="E9" s="64">
+        <v>34</v>
+      </c>
+      <c r="F9" s="63">
+        <v>5.3</v>
+      </c>
+      <c r="G9" s="27">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="63">
+        <v>10</v>
+      </c>
+      <c r="C10" s="64">
+        <v>25</v>
+      </c>
+      <c r="D10" s="63">
+        <v>20</v>
+      </c>
+      <c r="E10" s="64">
+        <v>59</v>
+      </c>
+      <c r="F10" s="63">
+        <v>23</v>
+      </c>
+      <c r="G10" s="27">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="63">
+        <v>1.4</v>
+      </c>
+      <c r="C11" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="D11" s="63">
+        <v>3.1</v>
+      </c>
+      <c r="E11" s="64">
+        <v>8.1</v>
+      </c>
+      <c r="F11" s="63">
+        <v>3.8</v>
+      </c>
+      <c r="G11" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="63">
+        <v>14</v>
+      </c>
+      <c r="C12" s="64">
+        <v>30</v>
+      </c>
+      <c r="D12" s="63">
+        <v>15</v>
+      </c>
+      <c r="E12" s="64">
+        <v>35</v>
+      </c>
+      <c r="F12" s="63">
+        <v>18</v>
+      </c>
+      <c r="G12" s="27">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="63">
+        <v>8.9</v>
+      </c>
+      <c r="C13" s="64">
+        <v>14</v>
+      </c>
+      <c r="D13" s="63">
+        <v>14</v>
+      </c>
+      <c r="E13" s="64">
+        <v>22</v>
+      </c>
+      <c r="F13" s="63">
+        <v>15</v>
+      </c>
+      <c r="G13" s="27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="63">
+        <v>1.4</v>
+      </c>
+      <c r="C14" s="64">
+        <v>6.1</v>
+      </c>
+      <c r="D14" s="63">
+        <v>1.4</v>
+      </c>
+      <c r="E14" s="64">
+        <v>6.1</v>
+      </c>
+      <c r="F14" s="63">
+        <v>1.4</v>
+      </c>
+      <c r="G14" s="27">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="66">
+        <v>40</v>
+      </c>
+      <c r="C15" s="67">
+        <v>110</v>
+      </c>
+      <c r="D15" s="66">
+        <v>60</v>
+      </c>
+      <c r="E15" s="67">
+        <v>177</v>
+      </c>
+      <c r="F15" s="66">
+        <v>67</v>
+      </c>
+      <c r="G15" s="85">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="63">
+        <v>7.1</v>
+      </c>
+      <c r="C16" s="64">
+        <v>31</v>
+      </c>
+      <c r="D16" s="63">
+        <v>7.1</v>
+      </c>
+      <c r="E16" s="64">
+        <v>31</v>
+      </c>
+      <c r="F16" s="63">
+        <v>7.1</v>
+      </c>
+      <c r="G16" s="27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="63">
+        <v>20.2</v>
+      </c>
+      <c r="C17" s="64">
+        <v>115</v>
+      </c>
+      <c r="D17" s="63">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E17" s="64">
+        <v>71</v>
+      </c>
+      <c r="F17" s="63">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G17" s="27">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="63">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C18" s="64">
+        <v>18</v>
+      </c>
+      <c r="D18" s="63">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E18" s="64">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F18" s="63">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G18" s="27">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="63">
+        <v>3.2</v>
+      </c>
+      <c r="C19" s="64">
+        <v>24</v>
+      </c>
+      <c r="D19" s="63">
+        <v>3.3</v>
+      </c>
+      <c r="E19" s="64">
+        <v>23</v>
+      </c>
+      <c r="F19" s="63">
+        <v>3.2</v>
+      </c>
+      <c r="G19" s="27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="66">
+        <v>40</v>
+      </c>
+      <c r="C20" s="67">
+        <v>188</v>
+      </c>
+      <c r="D20" s="66">
+        <v>39</v>
+      </c>
+      <c r="E20" s="67">
+        <v>135</v>
+      </c>
+      <c r="F20" s="66">
+        <v>39</v>
+      </c>
+      <c r="G20" s="85">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="63">
+        <v>5</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="63">
+        <v>7.2</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="63">
+        <v>9.4</v>
+      </c>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="63">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C22" s="64">
+        <v>38</v>
+      </c>
+      <c r="D22" s="63">
+        <v>13.3</v>
+      </c>
+      <c r="E22" s="64">
+        <v>58</v>
+      </c>
+      <c r="F22" s="63">
+        <v>13.3</v>
+      </c>
+      <c r="G22" s="27">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="63">
+        <v>3.7</v>
+      </c>
+      <c r="C23" s="64">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D23" s="63">
+        <v>7.3</v>
+      </c>
+      <c r="E23" s="64">
+        <v>17.3</v>
+      </c>
+      <c r="F23" s="63">
+        <v>7.3</v>
+      </c>
+      <c r="G23" s="27">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="68">
+        <v>0.8</v>
+      </c>
+      <c r="C24" s="69"/>
+      <c r="D24" s="68">
+        <v>1.8</v>
+      </c>
+      <c r="E24" s="69"/>
+      <c r="F24" s="68">
+        <v>1.8</v>
+      </c>
+      <c r="G24" s="52"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="26">
+        <v>0</v>
+      </c>
+      <c r="C28" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="D28" s="27">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="C29" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="D29" s="27">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" s="71">
+        <f>B21-SUM(B28:B29)</f>
+        <v>3.5</v>
+      </c>
+      <c r="C30" s="71">
+        <f>D21-SUM(C28:C29)</f>
+        <v>3.5</v>
+      </c>
+      <c r="D30" s="52">
+        <f>F21-SUM(D28:D29)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>1920</v>
+      </c>
+      <c r="C2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>600</v>
+      </c>
+      <c r="C3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>10623</v>
+      </c>
+      <c r="C4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>9300</v>
+      </c>
+      <c r="C5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>3100</v>
+      </c>
+      <c r="C8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>66</v>
+      </c>
+      <c r="B9">
+        <v>4800</v>
+      </c>
+      <c r="C9">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>76</v>
+      </c>
+      <c r="B10">
+        <v>300</v>
+      </c>
+      <c r="C10">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="1">
+        <f>SUM(B2:B10)</f>
+        <v>30716</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2">
+        <f>SUM('E3 Data'!C8,'E3 Data'!C10)*'Flexibility Points'!D2</f>
+        <v>58547.999999999993</v>
+      </c>
+      <c r="C2" s="79">
+        <v>0</v>
+      </c>
+      <c r="D2" s="73">
+        <f>SUM('E3 Data'!B83:B86)*'Flexibility Points'!D6</f>
+        <v>8276.6107865268004</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="39">
+        <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
+        <v>30716</v>
+      </c>
+      <c r="G2" s="73">
+        <f>SUM(B2:F2)</f>
+        <v>97540.610786526799</v>
+      </c>
+      <c r="H2" s="73">
+        <f>G2*'Transmission Connectivity'!$B$60</f>
+        <v>18442.510828436869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3">
+        <f>SUM('E3 Data'!C8,'E3 Data'!C10)*'Flexibility Points'!D2</f>
+        <v>58547.999999999993</v>
+      </c>
+      <c r="C3" s="79">
+        <v>0</v>
+      </c>
+      <c r="D3" s="73">
+        <f>SUM('E3 Data'!B83:B86)*'Flexibility Points'!D6</f>
+        <v>8276.6107865268004</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="39">
+        <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
+        <v>30716</v>
+      </c>
+      <c r="G3" s="73">
+        <f t="shared" ref="G3:G7" si="0">SUM(B3:F3)</f>
+        <v>97540.610786526799</v>
+      </c>
+      <c r="H3" s="73">
+        <f>G3*'Transmission Connectivity'!$B$60</f>
+        <v>18442.510828436869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4">
+        <f>SUM('E3 Data'!C8,'E3 Data'!C10)*'Flexibility Points'!D2</f>
+        <v>58547.999999999993</v>
+      </c>
+      <c r="C4" s="79">
+        <v>0</v>
+      </c>
+      <c r="D4" s="73">
+        <f>SUM('E3 Data'!B83:B86)*'Flexibility Points'!D6</f>
+        <v>8276.6107865268004</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
+        <v>30716</v>
+      </c>
+      <c r="G4" s="73">
+        <f t="shared" si="0"/>
+        <v>97540.610786526799</v>
+      </c>
+      <c r="H4" s="73">
+        <f>G4*'Transmission Connectivity'!$B$60</f>
+        <v>18442.510828436869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5">
+        <f>'LCGS Data'!B18*10^3*'Flexibility Points'!D2</f>
+        <v>55799.999999999993</v>
+      </c>
+      <c r="C5" s="73">
+        <f>'LCGS Data'!B23*10^3*'Flexibility Points'!D7</f>
+        <v>4753.4722222222217</v>
+      </c>
+      <c r="D5" s="73">
+        <f>SUM('LCGS Data'!B29:B30)*10^3*'Flexibility Points'!D6</f>
+        <v>15332.735803124862</v>
+      </c>
+      <c r="E5">
+        <f>'LCGS Data'!B28*10^3*'Flexibility Points'!D3</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="39">
+        <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
+        <v>30716</v>
+      </c>
+      <c r="G5" s="73">
+        <f t="shared" si="0"/>
+        <v>106602.20802534708</v>
+      </c>
+      <c r="H5" s="73">
+        <f>G5*'Transmission Connectivity'!$B$60</f>
+        <v>20155.834169887185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6">
+        <f>'LCGS Data'!D18*10^3*'Flexibility Points'!D2</f>
+        <v>55799.999999999993</v>
+      </c>
+      <c r="C6" s="73">
+        <f>'LCGS Data'!D23*10^3*'Flexibility Points'!D7</f>
+        <v>9378.4722222222208</v>
+      </c>
+      <c r="D6" s="73">
+        <f>SUM('LCGS Data'!C29:C30)*10^3*'Flexibility Points'!D6</f>
+        <v>18399.282963749833</v>
+      </c>
+      <c r="E6">
+        <f>'LCGS Data'!C28*10^3*'Flexibility Points'!D3</f>
+        <v>7199.9999999999991</v>
+      </c>
+      <c r="F6" s="39">
+        <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
+        <v>30716</v>
+      </c>
+      <c r="G6" s="73">
+        <f t="shared" si="0"/>
+        <v>121493.75518597204</v>
+      </c>
+      <c r="H6" s="73">
+        <f>G6*'Transmission Connectivity'!$B$60</f>
+        <v>22971.456478866407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7">
+        <f>'LCGS Data'!F18*10^3*'Flexibility Points'!D2</f>
+        <v>55799.999999999993</v>
+      </c>
+      <c r="C7" s="73">
+        <f>'LCGS Data'!F23*10^3*'Flexibility Points'!D7</f>
+        <v>9378.4722222222208</v>
+      </c>
+      <c r="D7" s="73">
+        <f>SUM('LCGS Data'!D29:D30)*10^3*'Flexibility Points'!D6</f>
+        <v>25145.686717124772</v>
+      </c>
+      <c r="E7">
+        <f>'LCGS Data'!D28*10^3*'Flexibility Points'!D3</f>
+        <v>7199.9999999999991</v>
+      </c>
+      <c r="F7" s="39">
+        <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
+        <v>30716</v>
+      </c>
+      <c r="G7" s="73">
+        <f t="shared" si="0"/>
+        <v>128240.15893934699</v>
+      </c>
+      <c r="H7" s="73">
+        <f>G7*'Transmission Connectivity'!$B$60</f>
+        <v>24247.034141045766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="76">
+        <f>'E3 Data'!B60*('E3 Data'!B48/SUM('E3 Data'!B42:B44))</f>
+        <v>6.1893058553227041E-3</v>
+      </c>
+      <c r="C10" s="77">
+        <f>SUM('E3 Data'!B21:B23,'E3 Data'!B29)</f>
+        <v>19476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="76">
+        <f>'E3 Data'!C60*('E3 Data'!C48/SUM('E3 Data'!C42:C44))</f>
+        <v>4.4270747740345111E-2</v>
+      </c>
+      <c r="C11" s="77">
+        <f>SUM('E3 Data'!C21:C23,'E3 Data'!C29)</f>
+        <v>25493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="76">
+        <f>'E3 Data'!D60*('E3 Data'!D48/SUM('E3 Data'!D42:D44))</f>
+        <v>0.18340437869098253</v>
+      </c>
+      <c r="C12" s="77">
+        <f>SUM('E3 Data'!D21:D23,'E3 Data'!D29)</f>
+        <v>34090</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="76">
+        <f>'LCGS Data'!B3*('LCGS Data'!C15/SUM('LCGS Data'!C12:C13))</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C13" s="77">
+        <f>SUM('LCGS Data'!B12:B13)*10^3</f>
+        <v>22900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="76">
+        <f>'LCGS Data'!C3*('LCGS Data'!E15/SUM('LCGS Data'!E12:E13))</f>
+        <v>3.1052631578947366E-2</v>
+      </c>
+      <c r="C14" s="77">
+        <f>SUM('LCGS Data'!D12:D13)*10^3</f>
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="76">
+        <f>'LCGS Data'!D3*('LCGS Data'!G15/SUM('LCGS Data'!G12:G13))</f>
+        <v>4.7307692307692308E-2</v>
+      </c>
+      <c r="C15" s="77">
+        <f>SUM('LCGS Data'!F12:F13)*10^3</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="76">
+        <f>C10/H2</f>
+        <v>1.0560384202117195</v>
+      </c>
+      <c r="C18" s="78">
+        <f>B10</f>
+        <v>6.1893058553227041E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="76">
+        <f t="shared" ref="B19:B23" si="1">C11/H3</f>
+        <v>1.3822955148109142</v>
+      </c>
+      <c r="C19" s="78">
+        <f t="shared" ref="C19:C23" si="2">B11</f>
+        <v>4.4270747740345111E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" s="76">
+        <f t="shared" si="1"/>
+        <v>1.848446793233596</v>
+      </c>
+      <c r="C20" s="78">
+        <f t="shared" si="2"/>
+        <v>0.18340437869098253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" s="76">
+        <f t="shared" si="1"/>
+        <v>1.1361474701063279</v>
+      </c>
+      <c r="C21" s="78">
+        <f t="shared" si="2"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="76">
+        <f t="shared" si="1"/>
+        <v>1.262436277241707</v>
+      </c>
+      <c r="C22" s="78">
+        <f t="shared" si="2"/>
+        <v>3.1052631578947366E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="76">
+        <f t="shared" si="1"/>
+        <v>1.3609911962031296</v>
+      </c>
+      <c r="C23" s="78">
+        <f t="shared" si="2"/>
+        <v>4.7307692307692308E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="81">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>A19</f>
+        <v>E3 40% RPS</v>
+      </c>
+      <c r="B28" s="76">
+        <f t="shared" ref="B28:C28" si="3">B19</f>
+        <v>1.3822955148109142</v>
+      </c>
+      <c r="C28" s="76">
+        <f t="shared" si="3"/>
+        <v>4.4270747740345111E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" ref="A29:C29" si="4">A20</f>
+        <v>E3 50% RPS Large Solar</v>
+      </c>
+      <c r="B29" s="76">
+        <f t="shared" si="4"/>
+        <v>1.848446793233596</v>
+      </c>
+      <c r="C29" s="76">
+        <f t="shared" si="4"/>
+        <v>0.18340437869098253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" ref="A30:C30" si="5">A21</f>
+        <v>LGCS Baseline</v>
+      </c>
+      <c r="B30" s="76">
+        <f t="shared" si="5"/>
+        <v>1.1361474701063279</v>
+      </c>
+      <c r="C30" s="76">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" ref="A31:C31" si="6">A22</f>
+        <v>LGCS Target</v>
+      </c>
+      <c r="B31" s="76">
+        <f t="shared" si="6"/>
+        <v>1.262436277241707</v>
+      </c>
+      <c r="C31" s="76">
+        <f t="shared" si="6"/>
+        <v>3.1052631578947366E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" ref="A32:C32" si="7">A23</f>
+        <v>LGCS Accelerated</v>
+      </c>
+      <c r="B32" s="76">
+        <f t="shared" si="7"/>
+        <v>1.3609911962031296</v>
+      </c>
+      <c r="C32" s="76">
+        <f t="shared" si="7"/>
+        <v>4.7307692307692308E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C10:C15" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2">
+        <v>0.19127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2">
+        <v>-0.33263999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2">
+        <v>0.14419000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1022,407 +5238,145 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>1.85</v>
       </c>
       <c r="C2">
-        <v>14.4</v>
+        <v>11.1</v>
       </c>
       <c r="D2" s="4">
         <f>C2/B2</f>
-        <v>7.7837837837837833</v>
+        <v>5.9999999999999991</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>1.85</v>
       </c>
       <c r="C3">
-        <v>14.4</v>
+        <v>11.1</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D7" si="0">C3/B3</f>
-        <v>7.7837837837837833</v>
+        <v>5.9999999999999991</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6">
         <v>3.06</v>
       </c>
       <c r="C4" s="6">
-        <v>14.4</v>
+        <v>11.1</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" si="0"/>
-        <v>4.7058823529411766</v>
+        <v>3.6274509803921569</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6">
         <v>4.43</v>
       </c>
       <c r="C5" s="6">
-        <v>14.4</v>
+        <v>11.1</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>3.2505643340857793</v>
+        <v>2.5056433408577878</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4">
         <f>AVERAGE(B4:B5)</f>
         <v>3.7450000000000001</v>
       </c>
       <c r="C6" s="9">
-        <f t="shared" ref="C6:D6" si="1">AVERAGE(C4:C5)</f>
-        <v>14.4</v>
+        <v>11.1</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="1"/>
-        <v>3.9782233435134779</v>
+        <f t="shared" ref="D6" si="1">AVERAGE(D4:D5)</f>
+        <v>3.0665471606249723</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>8.64</v>
       </c>
       <c r="C7">
-        <v>14.4</v>
+        <v>11.1</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>1.6666666666666665</v>
+        <v>1.2847222222222221</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D6" formula="1"/>
-    <ignoredError sqref="B6:C6" formula="1" formulaRange="1"/>
+    <ignoredError sqref="B6" formula="1" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22">
-        <v>179</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23">
-        <v>168</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24">
-        <v>349</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25">
-        <v>112</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36">
-        <f>MAX(B23,B24)*10^3</f>
-        <v>349000</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44">
-        <v>122</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="4">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4">
         <f>'Flexibility Points'!D2</f>
-        <v>7.7837837837837833</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="4">
-        <f>'Flexibility Points'!D6</f>
-        <v>3.9782233435134779</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55">
-        <f>((B22*B51)+(B44*B52))*10^3</f>
-        <v>1878640.5452059417</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="14">
-        <f>B36/B55</f>
-        <v>0.18577263271071459</v>
+        <v>5.9999999999999991</v>
       </c>
     </row>
   </sheetData>
@@ -1441,22 +5395,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4">
-        <f>'Flexibility Points'!D2</f>
-        <v>7.7837837837837833</v>
+        <f>'Flexibility Points'!D6</f>
+        <v>3.0665471606249723</v>
       </c>
     </row>
   </sheetData>
@@ -1475,22 +5429,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="B2" s="4">
-        <f>'Flexibility Points'!D6</f>
-        <v>3.9782233435134779</v>
+        <f>'Flexibility Points'!D3</f>
+        <v>5.9999999999999991</v>
       </c>
     </row>
   </sheetData>
@@ -1509,22 +5463,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4">
-        <f>'Flexibility Points'!D3</f>
-        <v>7.7837837837837833</v>
+        <f>'Flexibility Points'!D7</f>
+        <v>1.2847222222222221</v>
       </c>
     </row>
   </sheetData>
@@ -1543,22 +5497,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4">
-        <f>'Flexibility Points'!D7</f>
-        <v>1.6666666666666665</v>
+        <v>268</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1568,27 +5521,354 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>179</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>168</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>349</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25">
+        <v>112</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28">
+        <v>31</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <f>MAX(B23,B24)*10^3</f>
+        <v>349000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47">
+        <v>122</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="4">
+        <f>'Flexibility Points'!D2</f>
+        <v>5.9999999999999991</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="4">
+        <f>'Flexibility Points'!D3</f>
+        <v>5.9999999999999991</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="4">
+        <f>'Flexibility Points'!D7</f>
+        <v>1.2847222222222221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58">
+        <f>((B22*B54)+(B47*B55)+(B28*B56))*10^3</f>
+        <v>1845826.3888888885</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="14">
+        <f>B39/B58</f>
+        <v>0.18907520344320336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B2" s="15">
-        <f>'Transmission Connectivity'!B57</f>
-        <v>0.18577263271071459</v>
+        <f>'Transmission Connectivity'!B60</f>
+        <v>0.18907520344320336</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/FPC/Flexibility Point Calculations.xlsx
+++ b/InputData/elec/FPC/Flexibility Point Calculations.xlsx
@@ -9,13 +9,13 @@
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Flexibility Points" sheetId="2" r:id="rId2"/>
-    <sheet name="FPC-FPPpUNGPC" sheetId="3" r:id="rId3"/>
+    <sheet name="FPC-FPPpUPC" sheetId="3" r:id="rId3"/>
     <sheet name="FPC-FPPpUPH" sheetId="4" r:id="rId4"/>
     <sheet name="FPC-FPPpUBS" sheetId="6" r:id="rId5"/>
     <sheet name="FPC-FPPpUDRC" sheetId="5" r:id="rId6"/>
     <sheet name="FPC-FPPpUTCaMRB" sheetId="16" r:id="rId7"/>
     <sheet name="Transmission Connectivity" sheetId="8" r:id="rId8"/>
-    <sheet name="FPC-TCC" sheetId="7" r:id="rId9"/>
+    <sheet name="FPC-BTCC" sheetId="7" r:id="rId9"/>
     <sheet name="E3 Data" sheetId="9" r:id="rId10"/>
     <sheet name="LCGS Data" sheetId="10" r:id="rId11"/>
     <sheet name="CA Interties" sheetId="12" r:id="rId12"/>
@@ -23,13 +23,15 @@
     <sheet name="FPC-CSOC" sheetId="13" r:id="rId14"/>
     <sheet name="FPC-CFOC" sheetId="14" r:id="rId15"/>
     <sheet name="FPC-CZOC" sheetId="15" r:id="rId16"/>
+    <sheet name="Target Max FP Used" sheetId="18" r:id="rId17"/>
+    <sheet name="FPC-TMFoFPU" sheetId="17" r:id="rId18"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="292">
   <si>
     <t>Source:</t>
   </si>
@@ -139,13 +141,7 @@
     <t>Flexibility Points</t>
   </si>
   <si>
-    <t>NG Peakers</t>
-  </si>
-  <si>
     <t>Pumped Hydro</t>
-  </si>
-  <si>
-    <t>FPC Flexibility Points Provided Per Unit NG Peaker Capacity</t>
   </si>
   <si>
     <t>FPC Flexibility Points Provided per Unit Pumped Hydro</t>
@@ -295,9 +291,6 @@
   </si>
   <si>
     <t>See "Transmission Connectivity" tab for page and table numbers.</t>
-  </si>
-  <si>
-    <t>FPC Transmission Connectivity Coefficient</t>
   </si>
   <si>
     <t>All years</t>
@@ -906,6 +899,57 @@
   </si>
   <si>
     <t>Battery Storage</t>
+  </si>
+  <si>
+    <t>FPC Flexibility Points Provided Per Unit Peaker Capacity</t>
+  </si>
+  <si>
+    <t>Peakers</t>
+  </si>
+  <si>
+    <t>FPC BAU Transmission Connectivity Coefficient</t>
+  </si>
+  <si>
+    <t>BAU Transmission Connectivity Coefficient</t>
+  </si>
+  <si>
+    <t>FPC Target Maximum Fraction of Flexibility Points Used</t>
+  </si>
+  <si>
+    <t>Target Maximum</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>The target maximum fraction of FP used represents the level</t>
+  </si>
+  <si>
+    <t>of curtailment which utilities seek to avoid by building more</t>
+  </si>
+  <si>
+    <t>peaker plants.  We set the FP level to 1.4 (that is, 140% of FP</t>
+  </si>
+  <si>
+    <t>used), which is about 4% curtailment, a reasonable upper limit for utilities.</t>
+  </si>
+  <si>
+    <t>(Note that in practice, the model does not tend to build right up</t>
+  </si>
+  <si>
+    <t>to this limit due to the expensive tails of the bell curve price</t>
+  </si>
+  <si>
+    <t>distributions, so we will likely fall in the 2-3% curtailment range,</t>
+  </si>
+  <si>
+    <t>unless/until flexibility point generating technologies like peaker</t>
+  </si>
+  <si>
+    <t>plants retire, which can push the system into much higher percentages</t>
+  </si>
+  <si>
+    <t>of flexibility points used.)</t>
   </si>
 </sst>
 </file>
@@ -1428,11 +1472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209431936"/>
-        <c:axId val="209906688"/>
+        <c:axId val="162558336"/>
+        <c:axId val="162561024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209431936"/>
+        <c:axId val="162558336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,12 +1519,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209906688"/>
+        <c:crossAx val="162561024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209906688"/>
+        <c:axId val="162561024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1519,7 +1563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209431936"/>
+        <c:crossAx val="162558336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1671,11 +1715,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208932864"/>
-        <c:axId val="208934784"/>
+        <c:axId val="162533760"/>
+        <c:axId val="162535680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208932864"/>
+        <c:axId val="162533760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,12 +1747,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208934784"/>
+        <c:crossAx val="162535680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208934784"/>
+        <c:axId val="162535680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,7 +1781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208932864"/>
+        <c:crossAx val="162533760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2106,7 +2150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2118,438 +2162,443 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="12"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C25" s="12"/>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>229</v>
-      </c>
+      <c r="B26" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
+      <c r="B27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
         <v>2014</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="82" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="82" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="82" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="82" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="82" t="s">
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="12"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="84" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="82" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="82" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="83" t="s">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>240</v>
       </c>
-      <c r="C41" s="12"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="84" t="s">
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="3">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>5</v>
+      <c r="A49" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>250</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>251</v>
+      <c r="A79" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>258</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>261</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>263</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>266</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B22" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="B23" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -2576,7 +2625,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2584,7 +2633,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -2592,21 +2641,21 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>104</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B4" s="26">
         <v>5473</v>
@@ -2620,7 +2669,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B5" s="26">
         <v>1652</v>
@@ -2634,7 +2683,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B6" s="26">
         <v>2779</v>
@@ -2648,7 +2697,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B7" s="26">
         <v>16568</v>
@@ -2662,7 +2711,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B8" s="26">
         <v>5745</v>
@@ -2676,7 +2725,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B9" s="26">
         <v>15214</v>
@@ -2690,7 +2739,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B10" s="26">
         <v>213</v>
@@ -2704,7 +2753,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B11" s="29">
         <v>47644</v>
@@ -2719,7 +2768,7 @@
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -2730,7 +2779,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -2742,27 +2791,27 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="F15" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="G15" s="24" t="s">
         <v>120</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -2773,7 +2822,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B17" s="26">
         <v>397</v>
@@ -2796,7 +2845,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B18" s="34">
         <v>1243</v>
@@ -2819,7 +2868,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B19" s="34">
         <v>1950</v>
@@ -2842,7 +2891,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B20" s="34">
         <v>1282</v>
@@ -2865,7 +2914,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B21" s="26">
         <v>0</v>
@@ -2888,7 +2937,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B22" s="34">
         <v>3039</v>
@@ -2911,7 +2960,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B23" s="34">
         <v>9437</v>
@@ -2934,7 +2983,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B24" s="34">
         <v>1555</v>
@@ -2957,7 +3006,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B25" s="34">
         <v>7613</v>
@@ -2980,7 +3029,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B26" s="34">
         <v>1847</v>
@@ -3003,7 +3052,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B27" s="34">
         <v>28363</v>
@@ -3026,7 +3075,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -3037,7 +3086,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B29" s="34">
         <v>7000</v>
@@ -3060,7 +3109,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B30" s="34">
         <v>7000</v>
@@ -3083,7 +3132,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -3094,7 +3143,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B32" s="36">
         <v>35363</v>
@@ -3126,7 +3175,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -3137,7 +3186,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -3149,27 +3198,27 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="F36" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="G36" s="24" t="s">
         <v>120</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -3180,7 +3229,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B38" s="34">
         <v>2133</v>
@@ -3203,7 +3252,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B39" s="34">
         <v>7465</v>
@@ -3226,7 +3275,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B40" s="34">
         <v>16231</v>
@@ -3249,7 +3298,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B41" s="34">
         <v>4525</v>
@@ -3272,7 +3321,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B42" s="26">
         <v>0</v>
@@ -3295,7 +3344,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B43" s="34">
         <v>6536</v>
@@ -3318,7 +3367,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B44" s="34">
         <v>22190</v>
@@ -3341,7 +3390,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B45" s="34">
         <v>4044</v>
@@ -3364,7 +3413,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B46" s="34">
         <v>20789</v>
@@ -3387,7 +3436,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B47" s="34">
         <v>4985</v>
@@ -3410,7 +3459,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B48" s="34">
         <v>88897</v>
@@ -3433,7 +3482,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -3444,7 +3493,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B50" s="34">
         <v>10467</v>
@@ -3467,7 +3516,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B51" s="34">
         <v>10467</v>
@@ -3490,7 +3539,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
@@ -3501,7 +3550,7 @@
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B53" s="36">
         <v>99365</v>
@@ -3533,7 +3582,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -3544,7 +3593,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -3556,18 +3605,18 @@
     <row r="57" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
@@ -3578,7 +3627,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B59" s="26">
         <v>190</v>
@@ -3595,7 +3644,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B60" s="43">
         <v>2E-3</v>
@@ -3609,7 +3658,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
@@ -3617,7 +3666,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B62" s="26">
         <v>140</v>
@@ -3631,7 +3680,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B63" s="45">
         <v>1.6E-2</v>
@@ -3645,7 +3694,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
@@ -3653,7 +3702,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B65" s="26">
         <v>610</v>
@@ -3667,7 +3716,7 @@
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="47" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B66" s="48">
         <v>6300</v>
@@ -3682,7 +3731,7 @@
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -3690,7 +3739,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
@@ -3698,21 +3747,21 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B71" s="34">
         <v>165000</v>
@@ -3726,7 +3775,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B72" s="34">
         <v>61000</v>
@@ -3740,7 +3789,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="42" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B73" s="34">
         <v>90000</v>
@@ -3754,7 +3803,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B74" s="34">
         <v>11000</v>
@@ -3776,7 +3825,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B76" s="34">
         <v>2600</v>
@@ -3790,7 +3839,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B77" s="34">
         <v>-11000</v>
@@ -3804,7 +3853,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="42" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B78" s="26">
         <v>-190</v>
@@ -3818,7 +3867,7 @@
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="50" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B79" s="36">
         <v>320000</v>
@@ -3833,64 +3882,64 @@
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C82" s="51" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B83" s="34">
         <v>1212</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B84" s="26">
         <v>200</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B85" s="26">
         <v>40</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="47" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B86" s="48">
         <v>1247</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3917,7 +3966,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -3928,24 +3977,24 @@
     <row r="2" spans="1:7" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
       <c r="B2" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="F2" s="55" t="s">
         <v>178</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="57">
         <v>7.0000000000000001E-3</v>
@@ -3966,7 +4015,7 @@
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -3978,42 +4027,42 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="86" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="86" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E6" s="87"/>
       <c r="F6" s="86" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G6" s="88"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="59"/>
       <c r="B7" s="60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B8" s="63">
         <v>1.3</v>
@@ -4036,7 +4085,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B9" s="63">
         <v>2.7</v>
@@ -4059,7 +4108,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B10" s="63">
         <v>10</v>
@@ -4082,7 +4131,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B11" s="63">
         <v>1.4</v>
@@ -4105,7 +4154,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B12" s="63">
         <v>14</v>
@@ -4128,7 +4177,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B13" s="63">
         <v>8.9</v>
@@ -4151,7 +4200,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B14" s="63">
         <v>1.4</v>
@@ -4174,7 +4223,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B15" s="66">
         <v>40</v>
@@ -4197,7 +4246,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B16" s="63">
         <v>7.1</v>
@@ -4220,7 +4269,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B17" s="63">
         <v>20.2</v>
@@ -4243,7 +4292,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B18" s="63">
         <v>9.3000000000000007</v>
@@ -4266,7 +4315,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B19" s="63">
         <v>3.2</v>
@@ -4289,7 +4338,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B20" s="66">
         <v>40</v>
@@ -4312,7 +4361,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B21" s="63">
         <v>5</v>
@@ -4329,7 +4378,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B22" s="63">
         <v>8.6999999999999993</v>
@@ -4352,7 +4401,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B23" s="63">
         <v>3.7</v>
@@ -4375,7 +4424,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B24" s="68">
         <v>0.8</v>
@@ -4393,7 +4442,7 @@
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -4402,18 +4451,18 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B28" s="26">
         <v>0</v>
@@ -4427,7 +4476,7 @@
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B29" s="26">
         <v>1.5</v>
@@ -4441,7 +4490,7 @@
     </row>
     <row r="30" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="70" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B30" s="71">
         <f>B21-SUM(B28:B29)</f>
@@ -4481,13 +4530,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4591,7 +4640,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1">
         <f>SUM(B2:B10)</f>
@@ -4623,33 +4672,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B1" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="F1" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="G1" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="H1" s="74" t="s">
         <v>216</v>
-      </c>
-      <c r="F1" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="G1" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B2">
         <f>SUM('E3 Data'!C8,'E3 Data'!C10)*'Flexibility Points'!D2</f>
@@ -4680,7 +4729,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B3">
         <f>SUM('E3 Data'!C8,'E3 Data'!C10)*'Flexibility Points'!D2</f>
@@ -4711,7 +4760,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B4">
         <f>SUM('E3 Data'!C8,'E3 Data'!C10)*'Flexibility Points'!D2</f>
@@ -4742,7 +4791,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B5">
         <f>'LCGS Data'!B18*10^3*'Flexibility Points'!D2</f>
@@ -4775,7 +4824,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B6">
         <f>'LCGS Data'!D18*10^3*'Flexibility Points'!D2</f>
@@ -4808,7 +4857,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B7">
         <f>'LCGS Data'!F18*10^3*'Flexibility Points'!D2</f>
@@ -4841,18 +4890,18 @@
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B10" s="76">
         <f>'E3 Data'!B60*('E3 Data'!B48/SUM('E3 Data'!B42:B44))</f>
@@ -4865,7 +4914,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B11" s="76">
         <f>'E3 Data'!C60*('E3 Data'!C48/SUM('E3 Data'!C42:C44))</f>
@@ -4878,7 +4927,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B12" s="76">
         <f>'E3 Data'!D60*('E3 Data'!D48/SUM('E3 Data'!D42:D44))</f>
@@ -4891,7 +4940,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B13" s="76">
         <f>'LCGS Data'!B3*('LCGS Data'!C15/SUM('LCGS Data'!C12:C13))</f>
@@ -4904,7 +4953,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B14" s="76">
         <f>'LCGS Data'!C3*('LCGS Data'!E15/SUM('LCGS Data'!E12:E13))</f>
@@ -4917,7 +4966,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B15" s="76">
         <f>'LCGS Data'!D3*('LCGS Data'!G15/SUM('LCGS Data'!G12:G13))</f>
@@ -4930,18 +4979,18 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B18" s="76">
         <f>C10/H2</f>
@@ -4954,7 +5003,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B19" s="76">
         <f t="shared" ref="B19:B23" si="1">C11/H3</f>
@@ -4967,7 +5016,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B20" s="76">
         <f t="shared" si="1"/>
@@ -4980,7 +5029,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B21" s="76">
         <f t="shared" si="1"/>
@@ -4993,7 +5042,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B22" s="76">
         <f t="shared" si="1"/>
@@ -5006,7 +5055,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B23" s="76">
         <f t="shared" si="1"/>
@@ -5019,23 +5068,23 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B27" s="81">
         <v>1</v>
@@ -5140,12 +5189,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B2">
         <v>0.19127</v>
@@ -5173,12 +5222,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B2">
         <v>-0.33263999999999999</v>
@@ -5206,15 +5255,107 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B2">
         <v>0.14419000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -5244,7 +5385,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>28</v>
@@ -5372,7 +5513,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>276</v>
       </c>
       <c r="B2" s="4">
         <f>'Flexibility Points'!D2</f>
@@ -5406,7 +5547,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4">
         <f>'Flexibility Points'!D6</f>
@@ -5440,7 +5581,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B2" s="4">
         <f>'Flexibility Points'!D3</f>
@@ -5508,7 +5649,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5532,141 +5673,141 @@
   <sheetData>
     <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>179</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>168</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>349</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>112</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -5674,128 +5815,127 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B28">
         <v>31</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.3"/>
+        <v>91</v>
+      </c>
+    </row>
     <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <f>MAX(B23,B24)*10^3</f>
         <v>349000</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>122</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B54" s="4">
         <f>'Flexibility Points'!D2</f>
@@ -5804,7 +5944,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B55" s="4">
         <f>'Flexibility Points'!D3</f>
@@ -5813,7 +5953,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B56" s="4">
         <f>'Flexibility Points'!D7</f>
@@ -5822,7 +5962,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <f>((B22*B54)+(B47*B55)+(B28*B56))*10^3</f>
@@ -5831,7 +5971,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" s="14">
         <f>B39/B58</f>
@@ -5851,20 +5991,18 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="15">
         <f>'Transmission Connectivity'!B60</f>

--- a/InputData/elec/FPC/Flexibility Point Calculations.xlsx
+++ b/InputData/elec/FPC/Flexibility Point Calculations.xlsx
@@ -14,24 +14,25 @@
     <sheet name="FPC-FPPpUBS" sheetId="6" r:id="rId5"/>
     <sheet name="FPC-FPPpUDRC" sheetId="5" r:id="rId6"/>
     <sheet name="FPC-FPPpUTCaMRB" sheetId="16" r:id="rId7"/>
-    <sheet name="Transmission Connectivity" sheetId="8" r:id="rId8"/>
-    <sheet name="FPC-BTCC" sheetId="7" r:id="rId9"/>
-    <sheet name="E3 Data" sheetId="9" r:id="rId10"/>
-    <sheet name="LCGS Data" sheetId="10" r:id="rId11"/>
-    <sheet name="CA Interties" sheetId="12" r:id="rId12"/>
-    <sheet name="Curtailment Calcs" sheetId="11" r:id="rId13"/>
-    <sheet name="FPC-CSOC" sheetId="13" r:id="rId14"/>
-    <sheet name="FPC-CFOC" sheetId="14" r:id="rId15"/>
-    <sheet name="FPC-CZOC" sheetId="15" r:id="rId16"/>
-    <sheet name="Target Max FP Used" sheetId="18" r:id="rId17"/>
-    <sheet name="FPC-TMFoFPU" sheetId="17" r:id="rId18"/>
+    <sheet name="FPC-FPPpEV" sheetId="19" r:id="rId8"/>
+    <sheet name="Transmission Connectivity" sheetId="8" r:id="rId9"/>
+    <sheet name="FPC-BTCC" sheetId="7" r:id="rId10"/>
+    <sheet name="E3 Data" sheetId="9" r:id="rId11"/>
+    <sheet name="LCGS Data" sheetId="10" r:id="rId12"/>
+    <sheet name="CA Interties" sheetId="12" r:id="rId13"/>
+    <sheet name="Curtailment Calcs" sheetId="11" r:id="rId14"/>
+    <sheet name="FPC-CSOC" sheetId="13" r:id="rId15"/>
+    <sheet name="FPC-CFOC" sheetId="14" r:id="rId16"/>
+    <sheet name="FPC-CZOC" sheetId="15" r:id="rId17"/>
+    <sheet name="Target Max FP Used" sheetId="18" r:id="rId18"/>
+    <sheet name="FPC-TMFoFPU" sheetId="17" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="345">
   <si>
     <t>Source:</t>
   </si>
@@ -291,9 +292,6 @@
   </si>
   <si>
     <t>See "Transmission Connectivity" tab for page and table numbers.</t>
-  </si>
-  <si>
-    <t>All years</t>
   </si>
   <si>
     <t>transmission connectivity coefficient (TCC).  We assume this coefficient</t>
@@ -951,17 +949,180 @@
   <si>
     <t>of flexibility points used.)</t>
   </si>
+  <si>
+    <t>For the U.S., we assume this value is accurate for the start year and</t>
+  </si>
+  <si>
+    <t>scale it up in subsequent years by the percentage increase in</t>
+  </si>
+  <si>
+    <t>transmission capacity relative to the start year (all in the BAU case).</t>
+  </si>
+  <si>
+    <t>From variable BTC BAU Transmission Capacity:</t>
+  </si>
+  <si>
+    <t>BAU Transmission Capacity (MW*miles)</t>
+  </si>
+  <si>
+    <t>FPC Flexibility Points Provided per Electric Vehicle</t>
+  </si>
+  <si>
+    <t>aircraft</t>
+  </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>ships</t>
+  </si>
+  <si>
+    <t>motorbikes</t>
+  </si>
+  <si>
+    <t>LDVs</t>
+  </si>
+  <si>
+    <t>HDVs</t>
+  </si>
+  <si>
+    <t>FP provided per electric vehicle</t>
+  </si>
+  <si>
+    <t>Electric Vehicles</t>
+  </si>
+  <si>
+    <t>Vehicle Type</t>
+  </si>
+  <si>
+    <t>FP per EV</t>
+  </si>
+  <si>
+    <t>It is possible that electric vehicles (Evs) may provide flexibility points, either if they alter their charging rate</t>
+  </si>
+  <si>
+    <t>or if they will partially discharge at times of need to provide power to the grid in times of need.  However,</t>
+  </si>
+  <si>
+    <t>they will not be as effective at providing FP as dedicated grid batteries, because:</t>
+  </si>
+  <si>
+    <t>A) some regions simply won't support using EVs for grid balancing</t>
+  </si>
+  <si>
+    <t>B) some owners won't agree to allow their EV to be used for grid balancing</t>
+  </si>
+  <si>
+    <t>C) some EVs will be in use and thus not connected to the grid</t>
+  </si>
+  <si>
+    <t>D) some EVs will already be fully charged, so they cannot contribute to balancing unless discharging is permitted</t>
+  </si>
+  <si>
+    <t>share of regions that support using Evs for balancing</t>
+  </si>
+  <si>
+    <t>share of owners who allow their EV to be used for balancing</t>
+  </si>
+  <si>
+    <t>We use a series of mutlipliers (all assumptions) to reduce the FP rate from Evs to accont for each of these conditions:</t>
+  </si>
+  <si>
+    <t>FP per MW of EV battery capacity</t>
+  </si>
+  <si>
+    <t>We need the maximum charge (or discharge) rate of Evs (in MW), not the battery capacity (in kWh).</t>
+  </si>
+  <si>
+    <t>This has more to do with the charger and less to do with the size of the battery inside the EV.</t>
+  </si>
+  <si>
+    <t>Level 1 charging</t>
+  </si>
+  <si>
+    <t>https://pluginamerica.org/understanding-electric-vehicle-charging/</t>
+  </si>
+  <si>
+    <t>Charge Type</t>
+  </si>
+  <si>
+    <t>Typical Rate (kW)</t>
+  </si>
+  <si>
+    <t>Level 2 charging</t>
+  </si>
+  <si>
+    <t>Level 3 / Fast charging</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>These rates don't refer to the maximum charge rates allowed by the standards of each type (the max allowed</t>
+  </si>
+  <si>
+    <t>based on what is available from an ordinary home outlet.  Level 2 is based on the type of public charging</t>
+  </si>
+  <si>
+    <t>for level 2 is around 19.2 kW, and there is no maximum for level 3).  They refer to what is typical.  Level 1 is</t>
+  </si>
+  <si>
+    <t>https://electrek.co/2016/07/20/tesla-supercharger-capacity-increase-145-kw/</t>
+  </si>
+  <si>
+    <t>Tesla supercharger.</t>
+  </si>
+  <si>
+    <t>stations being installed around the U.S. today.  Level 3 is based on the best rate by any existing Tesla using a</t>
+  </si>
+  <si>
+    <t>http://www.mychevroletvolt.com/ev-home-charging-station-faqs-is-level-2-240v-charging-worth-it</t>
+  </si>
+  <si>
+    <t>Vehicle type</t>
+  </si>
+  <si>
+    <t>Share of L1 charging</t>
+  </si>
+  <si>
+    <t>Share of L2 charging</t>
+  </si>
+  <si>
+    <t>Share of L3 charging</t>
+  </si>
+  <si>
+    <t>We assume that when a vehicle is plugged in, the share of time it is using each type of charger is as follows.</t>
+  </si>
+  <si>
+    <t>Electric trains are assumed to use an electrified rail, not batteries.  We disregard electric aircraft and ships, if any.</t>
+  </si>
+  <si>
+    <t>This will be overwhelmingly determined by whatever is the default setting</t>
+  </si>
+  <si>
+    <t>share of Evs plugged in at peak electricity demand times</t>
+  </si>
+  <si>
+    <t>share of Evs not already fully charged, or which allow discharging</t>
+  </si>
+  <si>
+    <t>Next, we conver to MW, to match the unit used for FP in the EPS:</t>
+  </si>
+  <si>
+    <t>Typical Rate (MW)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,8 +1178,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1058,6 +1228,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,7 +1378,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1218,7 +1400,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1321,6 +1502,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1330,6 +1513,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1472,11 +1675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162558336"/>
-        <c:axId val="162561024"/>
+        <c:axId val="204176768"/>
+        <c:axId val="204191616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162558336"/>
+        <c:axId val="204176768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1519,12 +1722,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162561024"/>
+        <c:crossAx val="204191616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162561024"/>
+        <c:axId val="204191616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,7 +1766,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162558336"/>
+        <c:crossAx val="204176768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1715,11 +1918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162533760"/>
-        <c:axId val="162535680"/>
+        <c:axId val="211575936"/>
+        <c:axId val="212337408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162533760"/>
+        <c:axId val="211575936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1747,12 +1950,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162535680"/>
+        <c:crossAx val="212337408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162535680"/>
+        <c:axId val="212337408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,7 +1984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162533760"/>
+        <c:crossAx val="211575936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2150,7 +2353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2162,7 +2365,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2172,7 +2375,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2182,423 +2385,428 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26" s="12"/>
-    </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>226</v>
-      </c>
+      <c r="B27" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
+      <c r="B28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
         <v>2014</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="3">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="82" t="s">
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="81" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="81" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="82" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="81" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="82" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="82" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="82" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="83" t="s">
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="C42" s="12"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="84" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="3">
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
         <v>2013</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>247</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>248</v>
+      <c r="A80" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>255</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>258</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>263</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
-    <hyperlink ref="B23" r:id="rId2"/>
+    <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B24" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -2606,6 +2814,277 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AJ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1">
+        <v>2017</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1">
+        <v>2019</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+      <c r="G1">
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <v>2022</v>
+      </c>
+      <c r="I1">
+        <v>2023</v>
+      </c>
+      <c r="J1">
+        <v>2024</v>
+      </c>
+      <c r="K1">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+      <c r="Q1">
+        <v>2031</v>
+      </c>
+      <c r="R1">
+        <v>2032</v>
+      </c>
+      <c r="S1">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="86">
+        <f>'Transmission Connectivity'!B60</f>
+        <v>0.18907520344320336</v>
+      </c>
+      <c r="C2" s="86">
+        <f>$B2*('Transmission Connectivity'!C68/'Transmission Connectivity'!$B68)</f>
+        <v>0.18921822553355375</v>
+      </c>
+      <c r="D2" s="86">
+        <f>$B2*('Transmission Connectivity'!D68/'Transmission Connectivity'!$B68)</f>
+        <v>0.18936124762390413</v>
+      </c>
+      <c r="E2" s="86">
+        <f>$B2*('Transmission Connectivity'!E68/'Transmission Connectivity'!$B68)</f>
+        <v>0.18950426971425452</v>
+      </c>
+      <c r="F2" s="86">
+        <f>$B2*('Transmission Connectivity'!F68/'Transmission Connectivity'!$B68)</f>
+        <v>0.18964729180460488</v>
+      </c>
+      <c r="G2" s="86">
+        <f>$B2*('Transmission Connectivity'!G68/'Transmission Connectivity'!$B68)</f>
+        <v>0.18979031389495526</v>
+      </c>
+      <c r="H2" s="86">
+        <f>$B2*('Transmission Connectivity'!H68/'Transmission Connectivity'!$B68)</f>
+        <v>0.18993333598530565</v>
+      </c>
+      <c r="I2" s="86">
+        <f>$B2*('Transmission Connectivity'!I68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19007635807565604</v>
+      </c>
+      <c r="J2" s="86">
+        <f>$B2*('Transmission Connectivity'!J68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19021938016600642</v>
+      </c>
+      <c r="K2" s="86">
+        <f>$B2*('Transmission Connectivity'!K68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19036240225635681</v>
+      </c>
+      <c r="L2" s="86">
+        <f>$B2*('Transmission Connectivity'!L68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19050542434670717</v>
+      </c>
+      <c r="M2" s="86">
+        <f>$B2*('Transmission Connectivity'!M68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19064844643705761</v>
+      </c>
+      <c r="N2" s="86">
+        <f>$B2*('Transmission Connectivity'!N68/'Transmission Connectivity'!$B68)</f>
+        <v>0.190791468527408</v>
+      </c>
+      <c r="O2" s="86">
+        <f>$B2*('Transmission Connectivity'!O68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19093449061775836</v>
+      </c>
+      <c r="P2" s="86">
+        <f>$B2*('Transmission Connectivity'!P68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19107751270810874</v>
+      </c>
+      <c r="Q2" s="86">
+        <f>$B2*('Transmission Connectivity'!Q68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19122053479845913</v>
+      </c>
+      <c r="R2" s="86">
+        <f>$B2*('Transmission Connectivity'!R68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19136355688880952</v>
+      </c>
+      <c r="S2" s="86">
+        <f>$B2*('Transmission Connectivity'!S68/'Transmission Connectivity'!$B68)</f>
+        <v>0.1915065789791599</v>
+      </c>
+      <c r="T2" s="86">
+        <f>$B2*('Transmission Connectivity'!T68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19164960106951029</v>
+      </c>
+      <c r="U2" s="86">
+        <f>$B2*('Transmission Connectivity'!U68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19179262315986068</v>
+      </c>
+      <c r="V2" s="86">
+        <f>$B2*('Transmission Connectivity'!V68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19193564525021103</v>
+      </c>
+      <c r="W2" s="86">
+        <f>$B2*('Transmission Connectivity'!W68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19207866734056142</v>
+      </c>
+      <c r="X2" s="86">
+        <f>$B2*('Transmission Connectivity'!X68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19222168943091181</v>
+      </c>
+      <c r="Y2" s="86">
+        <f>$B2*('Transmission Connectivity'!Y68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19236471152126219</v>
+      </c>
+      <c r="Z2" s="86">
+        <f>$B2*('Transmission Connectivity'!Z68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19250773361161258</v>
+      </c>
+      <c r="AA2" s="86">
+        <f>$B2*('Transmission Connectivity'!AA68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19265075570196297</v>
+      </c>
+      <c r="AB2" s="86">
+        <f>$B2*('Transmission Connectivity'!AB68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19279377779231333</v>
+      </c>
+      <c r="AC2" s="86">
+        <f>$B2*('Transmission Connectivity'!AC68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19293679988266371</v>
+      </c>
+      <c r="AD2" s="86">
+        <f>$B2*('Transmission Connectivity'!AD68/'Transmission Connectivity'!$B68)</f>
+        <v>0.1930798219730141</v>
+      </c>
+      <c r="AE2" s="86">
+        <f>$B2*('Transmission Connectivity'!AE68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19322284406336449</v>
+      </c>
+      <c r="AF2" s="86">
+        <f>$B2*('Transmission Connectivity'!AF68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19336586615371487</v>
+      </c>
+      <c r="AG2" s="86">
+        <f>$B2*('Transmission Connectivity'!AG68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19350888824406526</v>
+      </c>
+      <c r="AH2" s="86">
+        <f>$B2*('Transmission Connectivity'!AH68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19365191033441567</v>
+      </c>
+      <c r="AI2" s="86">
+        <f>$B2*('Transmission Connectivity'!AI68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19379493242476606</v>
+      </c>
+      <c r="AJ2" s="86">
+        <f>$B2*('Transmission Connectivity'!AJ68/'Transmission Connectivity'!$B68)</f>
+        <v>0.19393795451511645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G86"/>
   <sheetViews>
@@ -2624,1322 +3103,1322 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="B3" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="24" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="B4" s="25">
+        <v>5473</v>
+      </c>
+      <c r="C4" s="25">
+        <v>3323</v>
+      </c>
+      <c r="D4" s="26">
+        <v>-2150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="26">
-        <v>5473</v>
-      </c>
-      <c r="C4" s="26">
-        <v>3323</v>
-      </c>
-      <c r="D4" s="27">
-        <v>-2150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="B5" s="25">
+        <v>1652</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
+        <v>-1652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="26">
-        <v>1652</v>
-      </c>
-      <c r="C5" s="26">
+      <c r="B6" s="25">
+        <v>2779</v>
+      </c>
+      <c r="C6" s="25">
+        <v>2779</v>
+      </c>
+      <c r="D6" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="27">
-        <v>-1652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="26">
-        <v>2779</v>
-      </c>
-      <c r="C6" s="26">
-        <v>2779</v>
-      </c>
-      <c r="D6" s="27">
+      <c r="B7" s="25">
+        <v>16568</v>
+      </c>
+      <c r="C7" s="25">
+        <v>23928</v>
+      </c>
+      <c r="D7" s="26">
+        <v>7360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="25">
+        <v>5745</v>
+      </c>
+      <c r="C8" s="25">
+        <v>9545</v>
+      </c>
+      <c r="D8" s="26">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="25">
+        <v>15214</v>
+      </c>
+      <c r="C9" s="25">
+        <v>30</v>
+      </c>
+      <c r="D9" s="26">
+        <v>-15184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="25">
+        <v>213</v>
+      </c>
+      <c r="C10" s="25">
+        <v>213</v>
+      </c>
+      <c r="D10" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="26">
-        <v>16568</v>
-      </c>
-      <c r="C7" s="26">
-        <v>23928</v>
-      </c>
-      <c r="D7" s="27">
-        <v>7360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="26">
-        <v>5745</v>
-      </c>
-      <c r="C8" s="26">
-        <v>9545</v>
-      </c>
-      <c r="D8" s="27">
-        <v>3799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="26">
-        <v>15214</v>
-      </c>
-      <c r="C9" s="26">
-        <v>30</v>
-      </c>
-      <c r="D9" s="27">
-        <v>-15184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="26">
-        <v>213</v>
-      </c>
-      <c r="C10" s="26">
-        <v>213</v>
-      </c>
-      <c r="D10" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="29">
+      <c r="B11" s="28">
         <v>47644</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>39816</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="29">
         <v>-7827</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="24" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="B17" s="25">
+        <v>397</v>
+      </c>
+      <c r="C17" s="25">
+        <v>397</v>
+      </c>
+      <c r="D17" s="25">
+        <v>397</v>
+      </c>
+      <c r="E17" s="25">
+        <v>724</v>
+      </c>
+      <c r="F17" s="25">
+        <v>397</v>
+      </c>
+      <c r="G17" s="26">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="26">
-        <v>397</v>
-      </c>
-      <c r="C17" s="26">
-        <v>397</v>
-      </c>
-      <c r="D17" s="26">
-        <v>397</v>
-      </c>
-      <c r="E17" s="26">
-        <v>724</v>
-      </c>
-      <c r="F17" s="26">
-        <v>397</v>
-      </c>
-      <c r="G17" s="27">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="B18" s="33">
+        <v>1243</v>
+      </c>
+      <c r="C18" s="33">
+        <v>1243</v>
+      </c>
+      <c r="D18" s="33">
+        <v>1243</v>
+      </c>
+      <c r="E18" s="33">
+        <v>1550</v>
+      </c>
+      <c r="F18" s="33">
+        <v>1243</v>
+      </c>
+      <c r="G18" s="34">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="34">
-        <v>1243</v>
-      </c>
-      <c r="C18" s="34">
-        <v>1243</v>
-      </c>
-      <c r="D18" s="34">
-        <v>1243</v>
-      </c>
-      <c r="E18" s="34">
-        <v>1550</v>
-      </c>
-      <c r="F18" s="34">
-        <v>1243</v>
-      </c>
-      <c r="G18" s="35">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="B19" s="33">
+        <v>1950</v>
+      </c>
+      <c r="C19" s="33">
+        <v>1950</v>
+      </c>
+      <c r="D19" s="33">
+        <v>1950</v>
+      </c>
+      <c r="E19" s="33">
+        <v>2531</v>
+      </c>
+      <c r="F19" s="33">
+        <v>1950</v>
+      </c>
+      <c r="G19" s="34">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="34">
-        <v>1950</v>
-      </c>
-      <c r="C19" s="34">
-        <v>1950</v>
-      </c>
-      <c r="D19" s="34">
-        <v>1950</v>
-      </c>
-      <c r="E19" s="34">
-        <v>2531</v>
-      </c>
-      <c r="F19" s="34">
-        <v>1950</v>
-      </c>
-      <c r="G19" s="35">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="B20" s="33">
+        <v>1282</v>
+      </c>
+      <c r="C20" s="33">
+        <v>1282</v>
+      </c>
+      <c r="D20" s="33">
+        <v>1282</v>
+      </c>
+      <c r="E20" s="33">
+        <v>1282</v>
+      </c>
+      <c r="F20" s="33">
+        <v>1282</v>
+      </c>
+      <c r="G20" s="34">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="34">
-        <v>1282</v>
-      </c>
-      <c r="C20" s="34">
-        <v>1282</v>
-      </c>
-      <c r="D20" s="34">
-        <v>1282</v>
-      </c>
-      <c r="E20" s="34">
-        <v>1282</v>
-      </c>
-      <c r="F20" s="34">
-        <v>1282</v>
-      </c>
-      <c r="G20" s="35">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="B21" s="25">
+        <v>0</v>
+      </c>
+      <c r="C21" s="25">
+        <v>629</v>
+      </c>
+      <c r="D21" s="33">
+        <v>1529</v>
+      </c>
+      <c r="E21" s="33">
+        <v>1529</v>
+      </c>
+      <c r="F21" s="33">
+        <v>1529</v>
+      </c>
+      <c r="G21" s="34">
+        <v>15286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B22" s="33">
+        <v>3039</v>
+      </c>
+      <c r="C22" s="33">
+        <v>4192</v>
+      </c>
+      <c r="D22" s="33">
+        <v>5839</v>
+      </c>
+      <c r="E22" s="33">
+        <v>5839</v>
+      </c>
+      <c r="F22" s="33">
+        <v>13308</v>
+      </c>
+      <c r="G22" s="34">
+        <v>4906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="33">
+        <v>9437</v>
+      </c>
+      <c r="C23" s="33">
+        <v>13672</v>
+      </c>
+      <c r="D23" s="33">
+        <v>19722</v>
+      </c>
+      <c r="E23" s="33">
+        <v>12008</v>
+      </c>
+      <c r="F23" s="33">
+        <v>12865</v>
+      </c>
+      <c r="G23" s="34">
+        <v>12865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="33">
+        <v>1555</v>
+      </c>
+      <c r="C24" s="33">
+        <v>1555</v>
+      </c>
+      <c r="D24" s="33">
+        <v>1555</v>
+      </c>
+      <c r="E24" s="33">
+        <v>3516</v>
+      </c>
+      <c r="F24" s="33">
+        <v>1555</v>
+      </c>
+      <c r="G24" s="34">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="33">
+        <v>7613</v>
+      </c>
+      <c r="C25" s="33">
+        <v>8918</v>
+      </c>
+      <c r="D25" s="33">
+        <v>10781</v>
+      </c>
+      <c r="E25" s="33">
+        <v>9989</v>
+      </c>
+      <c r="F25" s="33">
+        <v>10781</v>
+      </c>
+      <c r="G25" s="34">
+        <v>10781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="33">
+        <v>1847</v>
+      </c>
+      <c r="C26" s="33">
+        <v>1847</v>
+      </c>
+      <c r="D26" s="33">
+        <v>1847</v>
+      </c>
+      <c r="E26" s="33">
+        <v>3966</v>
+      </c>
+      <c r="F26" s="33">
+        <v>1847</v>
+      </c>
+      <c r="G26" s="34">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="33">
+        <v>28363</v>
+      </c>
+      <c r="C27" s="33">
+        <v>35685</v>
+      </c>
+      <c r="D27" s="33">
+        <v>46145</v>
+      </c>
+      <c r="E27" s="33">
+        <v>42935</v>
+      </c>
+      <c r="F27" s="33">
+        <v>46757</v>
+      </c>
+      <c r="G27" s="34">
+        <v>52113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="33">
+        <v>7000</v>
+      </c>
+      <c r="C29" s="33">
+        <v>7000</v>
+      </c>
+      <c r="D29" s="33">
+        <v>7000</v>
+      </c>
+      <c r="E29" s="33">
+        <v>7000</v>
+      </c>
+      <c r="F29" s="33">
+        <v>7000</v>
+      </c>
+      <c r="G29" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="33">
+        <v>7000</v>
+      </c>
+      <c r="C30" s="33">
+        <v>7000</v>
+      </c>
+      <c r="D30" s="33">
+        <v>7000</v>
+      </c>
+      <c r="E30" s="33">
+        <v>7000</v>
+      </c>
+      <c r="F30" s="33">
+        <v>7000</v>
+      </c>
+      <c r="G30" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="35">
+        <v>35363</v>
+      </c>
+      <c r="C32" s="35">
+        <v>42685</v>
+      </c>
+      <c r="D32" s="35">
+        <v>53145</v>
+      </c>
+      <c r="E32" s="35">
+        <v>49935</v>
+      </c>
+      <c r="F32" s="35">
+        <v>53757</v>
+      </c>
+      <c r="G32" s="36">
+        <v>59113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="33">
+        <v>2133</v>
+      </c>
+      <c r="C38" s="33">
+        <v>2133</v>
+      </c>
+      <c r="D38" s="33">
+        <v>2133</v>
+      </c>
+      <c r="E38" s="33">
+        <v>4422</v>
+      </c>
+      <c r="F38" s="33">
+        <v>2133</v>
+      </c>
+      <c r="G38" s="34">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="33">
+        <v>7465</v>
+      </c>
+      <c r="C39" s="33">
+        <v>7465</v>
+      </c>
+      <c r="D39" s="33">
+        <v>7465</v>
+      </c>
+      <c r="E39" s="33">
+        <v>9754</v>
+      </c>
+      <c r="F39" s="33">
+        <v>7465</v>
+      </c>
+      <c r="G39" s="34">
+        <v>7465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="33">
+        <v>16231</v>
+      </c>
+      <c r="C40" s="33">
+        <v>16231</v>
+      </c>
+      <c r="D40" s="33">
+        <v>16231</v>
+      </c>
+      <c r="E40" s="33">
+        <v>20811</v>
+      </c>
+      <c r="F40" s="33">
+        <v>16231</v>
+      </c>
+      <c r="G40" s="34">
+        <v>16231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="33">
+        <v>4525</v>
+      </c>
+      <c r="C41" s="33">
+        <v>4525</v>
+      </c>
+      <c r="D41" s="33">
+        <v>4525</v>
+      </c>
+      <c r="E41" s="33">
+        <v>4525</v>
+      </c>
+      <c r="F41" s="33">
+        <v>4525</v>
+      </c>
+      <c r="G41" s="34">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="25">
         <v>0</v>
       </c>
-      <c r="C21" s="26">
-        <v>629</v>
-      </c>
-      <c r="D21" s="34">
-        <v>1529</v>
-      </c>
-      <c r="E21" s="34">
-        <v>1529</v>
-      </c>
-      <c r="F21" s="34">
-        <v>1529</v>
-      </c>
-      <c r="G21" s="35">
-        <v>15286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="C42" s="25">
+        <v>943</v>
+      </c>
+      <c r="D42" s="33">
+        <v>2290</v>
+      </c>
+      <c r="E42" s="33">
+        <v>2290</v>
+      </c>
+      <c r="F42" s="33">
+        <v>2290</v>
+      </c>
+      <c r="G42" s="34">
+        <v>22898</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="33">
+        <v>6536</v>
+      </c>
+      <c r="C43" s="33">
+        <v>9365</v>
+      </c>
+      <c r="D43" s="33">
+        <v>13405</v>
+      </c>
+      <c r="E43" s="33">
+        <v>13405</v>
+      </c>
+      <c r="F43" s="33">
+        <v>31724</v>
+      </c>
+      <c r="G43" s="34">
+        <v>11116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="34">
-        <v>3039</v>
-      </c>
-      <c r="C22" s="34">
-        <v>4192</v>
-      </c>
-      <c r="D22" s="34">
-        <v>5839</v>
-      </c>
-      <c r="E22" s="34">
-        <v>5839</v>
-      </c>
-      <c r="F22" s="34">
-        <v>13308</v>
-      </c>
-      <c r="G22" s="35">
-        <v>4906</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="B44" s="33">
+        <v>22190</v>
+      </c>
+      <c r="C44" s="33">
+        <v>33504</v>
+      </c>
+      <c r="D44" s="33">
+        <v>49667</v>
+      </c>
+      <c r="E44" s="33">
+        <v>29059</v>
+      </c>
+      <c r="F44" s="33">
+        <v>31349</v>
+      </c>
+      <c r="G44" s="34">
+        <v>31349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="34">
-        <v>9437</v>
-      </c>
-      <c r="C23" s="34">
-        <v>13672</v>
-      </c>
-      <c r="D23" s="34">
-        <v>19722</v>
-      </c>
-      <c r="E23" s="34">
-        <v>12008</v>
-      </c>
-      <c r="F23" s="34">
-        <v>12865</v>
-      </c>
-      <c r="G23" s="35">
-        <v>12865</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="B45" s="33">
+        <v>4044</v>
+      </c>
+      <c r="C45" s="33">
+        <v>4044</v>
+      </c>
+      <c r="D45" s="33">
+        <v>4044</v>
+      </c>
+      <c r="E45" s="33">
+        <v>10913</v>
+      </c>
+      <c r="F45" s="33">
+        <v>4044</v>
+      </c>
+      <c r="G45" s="34">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="34">
-        <v>1555</v>
-      </c>
-      <c r="C24" s="34">
-        <v>1555</v>
-      </c>
-      <c r="D24" s="34">
-        <v>1555</v>
-      </c>
-      <c r="E24" s="34">
-        <v>3516</v>
-      </c>
-      <c r="F24" s="34">
-        <v>1555</v>
-      </c>
-      <c r="G24" s="35">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="B46" s="33">
+        <v>20789</v>
+      </c>
+      <c r="C46" s="33">
+        <v>24561</v>
+      </c>
+      <c r="D46" s="33">
+        <v>29948</v>
+      </c>
+      <c r="E46" s="33">
+        <v>27659</v>
+      </c>
+      <c r="F46" s="33">
+        <v>29948</v>
+      </c>
+      <c r="G46" s="34">
+        <v>29948</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="34">
-        <v>7613</v>
-      </c>
-      <c r="C25" s="34">
-        <v>8918</v>
-      </c>
-      <c r="D25" s="34">
-        <v>10781</v>
-      </c>
-      <c r="E25" s="34">
-        <v>9989</v>
-      </c>
-      <c r="F25" s="34">
-        <v>10781</v>
-      </c>
-      <c r="G25" s="35">
-        <v>10781</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="B47" s="33">
+        <v>4985</v>
+      </c>
+      <c r="C47" s="33">
+        <v>4985</v>
+      </c>
+      <c r="D47" s="33">
+        <v>4985</v>
+      </c>
+      <c r="E47" s="33">
+        <v>11854</v>
+      </c>
+      <c r="F47" s="33">
+        <v>4985</v>
+      </c>
+      <c r="G47" s="34">
+        <v>4985</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B26" s="34">
-        <v>1847</v>
-      </c>
-      <c r="C26" s="34">
-        <v>1847</v>
-      </c>
-      <c r="D26" s="34">
-        <v>1847</v>
-      </c>
-      <c r="E26" s="34">
-        <v>3966</v>
-      </c>
-      <c r="F26" s="34">
-        <v>1847</v>
-      </c>
-      <c r="G26" s="35">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="B48" s="33">
+        <v>88897</v>
+      </c>
+      <c r="C48" s="33">
+        <v>107755</v>
+      </c>
+      <c r="D48" s="33">
+        <v>134693</v>
+      </c>
+      <c r="E48" s="33">
+        <v>134693</v>
+      </c>
+      <c r="F48" s="33">
+        <v>134693</v>
+      </c>
+      <c r="G48" s="34">
+        <v>134693</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="34">
-        <v>28363</v>
-      </c>
-      <c r="C27" s="34">
-        <v>35685</v>
-      </c>
-      <c r="D27" s="34">
-        <v>46145</v>
-      </c>
-      <c r="E27" s="34">
-        <v>42935</v>
-      </c>
-      <c r="F27" s="34">
-        <v>46757</v>
-      </c>
-      <c r="G27" s="35">
-        <v>52113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="B50" s="33">
+        <v>10467</v>
+      </c>
+      <c r="C50" s="33">
+        <v>10467</v>
+      </c>
+      <c r="D50" s="33">
+        <v>10467</v>
+      </c>
+      <c r="E50" s="33">
+        <v>10467</v>
+      </c>
+      <c r="F50" s="33">
+        <v>10467</v>
+      </c>
+      <c r="G50" s="34">
+        <v>10467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="34">
-        <v>7000</v>
-      </c>
-      <c r="C29" s="34">
-        <v>7000</v>
-      </c>
-      <c r="D29" s="34">
-        <v>7000</v>
-      </c>
-      <c r="E29" s="34">
-        <v>7000</v>
-      </c>
-      <c r="F29" s="34">
-        <v>7000</v>
-      </c>
-      <c r="G29" s="35">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="B51" s="33">
+        <v>10467</v>
+      </c>
+      <c r="C51" s="33">
+        <v>10467</v>
+      </c>
+      <c r="D51" s="33">
+        <v>10467</v>
+      </c>
+      <c r="E51" s="33">
+        <v>10467</v>
+      </c>
+      <c r="F51" s="33">
+        <v>10467</v>
+      </c>
+      <c r="G51" s="34">
+        <v>10467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="34">
-        <v>7000</v>
-      </c>
-      <c r="C30" s="34">
-        <v>7000</v>
-      </c>
-      <c r="D30" s="34">
-        <v>7000</v>
-      </c>
-      <c r="E30" s="34">
-        <v>7000</v>
-      </c>
-      <c r="F30" s="34">
-        <v>7000</v>
-      </c>
-      <c r="G30" s="35">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="32"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="36">
-        <v>35363</v>
-      </c>
-      <c r="C32" s="36">
-        <v>42685</v>
-      </c>
-      <c r="D32" s="36">
-        <v>53145</v>
-      </c>
-      <c r="E32" s="36">
-        <v>49935</v>
-      </c>
-      <c r="F32" s="36">
-        <v>53757</v>
-      </c>
-      <c r="G32" s="37">
-        <v>59113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="B53" s="35">
+        <v>99365</v>
+      </c>
+      <c r="C53" s="35">
+        <v>118222</v>
+      </c>
+      <c r="D53" s="35">
+        <v>145160</v>
+      </c>
+      <c r="E53" s="35">
+        <v>145160</v>
+      </c>
+      <c r="F53" s="35">
+        <v>145160</v>
+      </c>
+      <c r="G53" s="36">
+        <v>145160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="37"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="23" t="s">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+    </row>
+    <row r="57" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
+      <c r="B57" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="D57" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="34">
-        <v>2133</v>
-      </c>
-      <c r="C38" s="34">
-        <v>2133</v>
-      </c>
-      <c r="D38" s="34">
-        <v>2133</v>
-      </c>
-      <c r="E38" s="34">
-        <v>4422</v>
-      </c>
-      <c r="F38" s="34">
-        <v>2133</v>
-      </c>
-      <c r="G38" s="35">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" s="34">
-        <v>7465</v>
-      </c>
-      <c r="C39" s="34">
-        <v>7465</v>
-      </c>
-      <c r="D39" s="34">
-        <v>7465</v>
-      </c>
-      <c r="E39" s="34">
-        <v>9754</v>
-      </c>
-      <c r="F39" s="34">
-        <v>7465</v>
-      </c>
-      <c r="G39" s="35">
-        <v>7465</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="34">
-        <v>16231</v>
-      </c>
-      <c r="C40" s="34">
-        <v>16231</v>
-      </c>
-      <c r="D40" s="34">
-        <v>16231</v>
-      </c>
-      <c r="E40" s="34">
-        <v>20811</v>
-      </c>
-      <c r="F40" s="34">
-        <v>16231</v>
-      </c>
-      <c r="G40" s="35">
-        <v>16231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="34">
-        <v>4525</v>
-      </c>
-      <c r="C41" s="34">
-        <v>4525</v>
-      </c>
-      <c r="D41" s="34">
-        <v>4525</v>
-      </c>
-      <c r="E41" s="34">
-        <v>4525</v>
-      </c>
-      <c r="F41" s="34">
-        <v>4525</v>
-      </c>
-      <c r="G41" s="35">
-        <v>4525</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B42" s="26">
-        <v>0</v>
-      </c>
-      <c r="C42" s="26">
-        <v>943</v>
-      </c>
-      <c r="D42" s="34">
-        <v>2290</v>
-      </c>
-      <c r="E42" s="34">
-        <v>2290</v>
-      </c>
-      <c r="F42" s="34">
-        <v>2290</v>
-      </c>
-      <c r="G42" s="35">
-        <v>22898</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" s="34">
-        <v>6536</v>
-      </c>
-      <c r="C43" s="34">
-        <v>9365</v>
-      </c>
-      <c r="D43" s="34">
-        <v>13405</v>
-      </c>
-      <c r="E43" s="34">
-        <v>13405</v>
-      </c>
-      <c r="F43" s="34">
-        <v>31724</v>
-      </c>
-      <c r="G43" s="35">
-        <v>11116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="34">
-        <v>22190</v>
-      </c>
-      <c r="C44" s="34">
-        <v>33504</v>
-      </c>
-      <c r="D44" s="34">
-        <v>49667</v>
-      </c>
-      <c r="E44" s="34">
-        <v>29059</v>
-      </c>
-      <c r="F44" s="34">
-        <v>31349</v>
-      </c>
-      <c r="G44" s="35">
-        <v>31349</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="34">
-        <v>4044</v>
-      </c>
-      <c r="C45" s="34">
-        <v>4044</v>
-      </c>
-      <c r="D45" s="34">
-        <v>4044</v>
-      </c>
-      <c r="E45" s="34">
-        <v>10913</v>
-      </c>
-      <c r="F45" s="34">
-        <v>4044</v>
-      </c>
-      <c r="G45" s="35">
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="34">
-        <v>20789</v>
-      </c>
-      <c r="C46" s="34">
-        <v>24561</v>
-      </c>
-      <c r="D46" s="34">
-        <v>29948</v>
-      </c>
-      <c r="E46" s="34">
-        <v>27659</v>
-      </c>
-      <c r="F46" s="34">
-        <v>29948</v>
-      </c>
-      <c r="G46" s="35">
-        <v>29948</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="34">
-        <v>4985</v>
-      </c>
-      <c r="C47" s="34">
-        <v>4985</v>
-      </c>
-      <c r="D47" s="34">
-        <v>4985</v>
-      </c>
-      <c r="E47" s="34">
-        <v>11854</v>
-      </c>
-      <c r="F47" s="34">
-        <v>4985</v>
-      </c>
-      <c r="G47" s="35">
-        <v>4985</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="34">
-        <v>88897</v>
-      </c>
-      <c r="C48" s="34">
-        <v>107755</v>
-      </c>
-      <c r="D48" s="34">
-        <v>134693</v>
-      </c>
-      <c r="E48" s="34">
-        <v>134693</v>
-      </c>
-      <c r="F48" s="34">
-        <v>134693</v>
-      </c>
-      <c r="G48" s="35">
-        <v>134693</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="33"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B50" s="34">
-        <v>10467</v>
-      </c>
-      <c r="C50" s="34">
-        <v>10467</v>
-      </c>
-      <c r="D50" s="34">
-        <v>10467</v>
-      </c>
-      <c r="E50" s="34">
-        <v>10467</v>
-      </c>
-      <c r="F50" s="34">
-        <v>10467</v>
-      </c>
-      <c r="G50" s="35">
-        <v>10467</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B51" s="34">
-        <v>10467</v>
-      </c>
-      <c r="C51" s="34">
-        <v>10467</v>
-      </c>
-      <c r="D51" s="34">
-        <v>10467</v>
-      </c>
-      <c r="E51" s="34">
-        <v>10467</v>
-      </c>
-      <c r="F51" s="34">
-        <v>10467</v>
-      </c>
-      <c r="G51" s="35">
-        <v>10467</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B53" s="36">
-        <v>99365</v>
-      </c>
-      <c r="C53" s="36">
-        <v>118222</v>
-      </c>
-      <c r="D53" s="36">
-        <v>145160</v>
-      </c>
-      <c r="E53" s="36">
-        <v>145160</v>
-      </c>
-      <c r="F53" s="36">
-        <v>145160</v>
-      </c>
-      <c r="G53" s="37">
-        <v>145160</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="25">
+        <v>190</v>
+      </c>
+      <c r="C59" s="33">
+        <v>2000</v>
+      </c>
+      <c r="D59" s="34">
+        <v>12000</v>
+      </c>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="42">
+        <v>2E-3</v>
+      </c>
+      <c r="C60" s="42">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D60" s="43">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="32"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="25">
         <v>140</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-    </row>
-    <row r="57" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="26">
-        <v>190</v>
-      </c>
-      <c r="C59" s="34">
+      <c r="C62" s="25">
+        <v>750</v>
+      </c>
+      <c r="D62" s="34">
         <v>2000</v>
       </c>
-      <c r="D59" s="35">
-        <v>12000</v>
-      </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B60" s="43">
-        <v>2E-3</v>
-      </c>
-      <c r="C60" s="43">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D60" s="44">
-        <v>8.8999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="33"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="26">
-        <v>140</v>
-      </c>
-      <c r="C62" s="26">
-        <v>750</v>
-      </c>
-      <c r="D62" s="35">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
+      <c r="B63" s="44">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C63" s="44">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D63" s="45">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B63" s="45">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C63" s="45">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D63" s="46">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="32"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="33"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="B65" s="25">
+        <v>610</v>
+      </c>
+      <c r="C65" s="33">
+        <v>5600</v>
+      </c>
+      <c r="D65" s="34">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="26">
-        <v>610</v>
-      </c>
-      <c r="C65" s="34">
-        <v>5600</v>
-      </c>
-      <c r="D65" s="35">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="B66" s="48">
+      <c r="B66" s="47">
         <v>6300</v>
       </c>
-      <c r="C66" s="48">
+      <c r="C66" s="47">
         <v>14000</v>
       </c>
-      <c r="D66" s="49">
+      <c r="D66" s="48">
         <v>25000</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="18"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="21"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+      <c r="B70" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="42" t="s">
+      <c r="B71" s="33">
+        <v>165000</v>
+      </c>
+      <c r="C71" s="33">
+        <v>148000</v>
+      </c>
+      <c r="D71" s="34">
+        <v>137000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="34">
-        <v>165000</v>
-      </c>
-      <c r="C71" s="34">
-        <v>148000</v>
-      </c>
-      <c r="D71" s="35">
-        <v>137000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="42" t="s">
+      <c r="B72" s="33">
+        <v>61000</v>
+      </c>
+      <c r="C72" s="33">
+        <v>59000</v>
+      </c>
+      <c r="D72" s="34">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="B72" s="34">
-        <v>61000</v>
-      </c>
-      <c r="C72" s="34">
-        <v>59000</v>
-      </c>
-      <c r="D72" s="35">
-        <v>53000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="42" t="s">
+      <c r="B73" s="33">
+        <v>90000</v>
+      </c>
+      <c r="C73" s="33">
+        <v>109000</v>
+      </c>
+      <c r="D73" s="34">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="B73" s="34">
-        <v>90000</v>
-      </c>
-      <c r="C73" s="34">
-        <v>109000</v>
-      </c>
-      <c r="D73" s="35">
-        <v>136000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="42" t="s">
+      <c r="B74" s="33">
+        <v>11000</v>
+      </c>
+      <c r="C74" s="33">
+        <v>11000</v>
+      </c>
+      <c r="D74" s="34">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="B74" s="34">
-        <v>11000</v>
-      </c>
-      <c r="C74" s="34">
-        <v>11000</v>
-      </c>
-      <c r="D74" s="35">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="27"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="42" t="s">
+      <c r="B76" s="33">
+        <v>2600</v>
+      </c>
+      <c r="C76" s="33">
+        <v>2900</v>
+      </c>
+      <c r="D76" s="34">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="34">
-        <v>2600</v>
-      </c>
-      <c r="C76" s="34">
-        <v>2900</v>
-      </c>
-      <c r="D76" s="35">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="42" t="s">
+      <c r="B77" s="33">
+        <v>-11000</v>
+      </c>
+      <c r="C77" s="33">
+        <v>-10000</v>
+      </c>
+      <c r="D77" s="34">
+        <v>-9600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="34">
-        <v>-11000</v>
-      </c>
-      <c r="C77" s="34">
-        <v>-10000</v>
-      </c>
-      <c r="D77" s="35">
-        <v>-9600</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78" s="26">
+      <c r="B78" s="25">
         <v>-190</v>
       </c>
-      <c r="C78" s="34">
+      <c r="C78" s="33">
         <v>-2000</v>
       </c>
-      <c r="D78" s="35">
+      <c r="D78" s="34">
         <v>-12000</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="B79" s="36">
+      <c r="A79" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" s="35">
         <v>320000</v>
       </c>
-      <c r="C79" s="36">
+      <c r="C79" s="35">
         <v>320000</v>
       </c>
-      <c r="D79" s="37">
+      <c r="D79" s="36">
         <v>320000</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="16"/>
+      <c r="C81" s="17"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+      <c r="B82" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="C82" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="51" t="s">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="24" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="25" t="s">
+      <c r="B83" s="33">
+        <v>1212</v>
+      </c>
+      <c r="C83" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B83" s="34">
-        <v>1212</v>
-      </c>
-      <c r="C83" s="27" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="24" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="25" t="s">
+      <c r="B84" s="25">
+        <v>200</v>
+      </c>
+      <c r="C84" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B84" s="26">
-        <v>200</v>
-      </c>
-      <c r="C84" s="27" t="s">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="24" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="25" t="s">
+      <c r="B85" s="25">
+        <v>40</v>
+      </c>
+      <c r="C85" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B85" s="26">
-        <v>40</v>
-      </c>
-      <c r="C85" s="27" t="s">
+    </row>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="46" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="47" t="s">
+      <c r="B86" s="47">
+        <v>1247</v>
+      </c>
+      <c r="C86" s="51" t="s">
         <v>171</v>
-      </c>
-      <c r="B86" s="48">
-        <v>1247</v>
-      </c>
-      <c r="C86" s="52" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3947,7 +4426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -3965,542 +4444,542 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" s="55" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="F2" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="55" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="57">
+      <c r="A3" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="56">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="56">
         <v>0.01</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="56">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="56">
         <v>2.7E-2</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="57">
         <v>0.11899999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="88"/>
+      <c r="D6" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="88"/>
+      <c r="F6" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="89"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="86" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="86" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="88"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60" t="s">
+      <c r="D7" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="E7" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="62">
+        <v>1.3</v>
+      </c>
+      <c r="C8" s="63">
+        <v>10</v>
+      </c>
+      <c r="D8" s="62">
+        <v>1.6</v>
+      </c>
+      <c r="E8" s="63">
+        <v>12</v>
+      </c>
+      <c r="F8" s="62">
+        <v>1.6</v>
+      </c>
+      <c r="G8" s="26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="62">
+        <v>2.7</v>
+      </c>
+      <c r="C9" s="63">
+        <v>22</v>
+      </c>
+      <c r="D9" s="62">
+        <v>4.2</v>
+      </c>
+      <c r="E9" s="63">
+        <v>34</v>
+      </c>
+      <c r="F9" s="62">
+        <v>5.3</v>
+      </c>
+      <c r="G9" s="26">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="63">
-        <v>1.3</v>
-      </c>
-      <c r="C8" s="64">
+      <c r="B10" s="62">
         <v>10</v>
       </c>
-      <c r="D8" s="63">
-        <v>1.6</v>
-      </c>
-      <c r="E8" s="64">
-        <v>12</v>
-      </c>
-      <c r="F8" s="63">
-        <v>1.6</v>
-      </c>
-      <c r="G8" s="27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="63">
-        <v>2.7</v>
-      </c>
-      <c r="C9" s="64">
+      <c r="C10" s="63">
+        <v>25</v>
+      </c>
+      <c r="D10" s="62">
+        <v>20</v>
+      </c>
+      <c r="E10" s="63">
+        <v>59</v>
+      </c>
+      <c r="F10" s="62">
+        <v>23</v>
+      </c>
+      <c r="G10" s="26">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="62">
+        <v>1.4</v>
+      </c>
+      <c r="C11" s="63">
+        <v>3.4</v>
+      </c>
+      <c r="D11" s="62">
+        <v>3.1</v>
+      </c>
+      <c r="E11" s="63">
+        <v>8.1</v>
+      </c>
+      <c r="F11" s="62">
+        <v>3.8</v>
+      </c>
+      <c r="G11" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="62">
+        <v>14</v>
+      </c>
+      <c r="C12" s="63">
+        <v>30</v>
+      </c>
+      <c r="D12" s="62">
+        <v>15</v>
+      </c>
+      <c r="E12" s="63">
+        <v>35</v>
+      </c>
+      <c r="F12" s="62">
+        <v>18</v>
+      </c>
+      <c r="G12" s="26">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="62">
+        <v>8.9</v>
+      </c>
+      <c r="C13" s="63">
+        <v>14</v>
+      </c>
+      <c r="D13" s="62">
+        <v>14</v>
+      </c>
+      <c r="E13" s="63">
         <v>22</v>
       </c>
-      <c r="D9" s="63">
-        <v>4.2</v>
-      </c>
-      <c r="E9" s="64">
-        <v>34</v>
-      </c>
-      <c r="F9" s="63">
-        <v>5.3</v>
-      </c>
-      <c r="G9" s="27">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="63">
-        <v>10</v>
-      </c>
-      <c r="C10" s="64">
-        <v>25</v>
-      </c>
-      <c r="D10" s="63">
-        <v>20</v>
-      </c>
-      <c r="E10" s="64">
-        <v>59</v>
-      </c>
-      <c r="F10" s="63">
+      <c r="F13" s="62">
+        <v>15</v>
+      </c>
+      <c r="G13" s="26">
         <v>23</v>
       </c>
-      <c r="G10" s="27">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="B11" s="63">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="62">
         <v>1.4</v>
       </c>
-      <c r="C11" s="64">
-        <v>3.4</v>
-      </c>
-      <c r="D11" s="63">
-        <v>3.1</v>
-      </c>
-      <c r="E11" s="64">
-        <v>8.1</v>
-      </c>
-      <c r="F11" s="63">
-        <v>3.8</v>
-      </c>
-      <c r="G11" s="27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="63">
-        <v>14</v>
-      </c>
-      <c r="C12" s="64">
-        <v>30</v>
-      </c>
-      <c r="D12" s="63">
-        <v>15</v>
-      </c>
-      <c r="E12" s="64">
-        <v>35</v>
-      </c>
-      <c r="F12" s="63">
+      <c r="C14" s="63">
+        <v>6.1</v>
+      </c>
+      <c r="D14" s="62">
+        <v>1.4</v>
+      </c>
+      <c r="E14" s="63">
+        <v>6.1</v>
+      </c>
+      <c r="F14" s="62">
+        <v>1.4</v>
+      </c>
+      <c r="G14" s="26">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="65">
+        <v>40</v>
+      </c>
+      <c r="C15" s="66">
+        <v>110</v>
+      </c>
+      <c r="D15" s="65">
+        <v>60</v>
+      </c>
+      <c r="E15" s="66">
+        <v>177</v>
+      </c>
+      <c r="F15" s="65">
+        <v>67</v>
+      </c>
+      <c r="G15" s="84">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="62">
+        <v>7.1</v>
+      </c>
+      <c r="C16" s="63">
+        <v>31</v>
+      </c>
+      <c r="D16" s="62">
+        <v>7.1</v>
+      </c>
+      <c r="E16" s="63">
+        <v>31</v>
+      </c>
+      <c r="F16" s="62">
+        <v>7.1</v>
+      </c>
+      <c r="G16" s="26">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="62">
+        <v>20.2</v>
+      </c>
+      <c r="C17" s="63">
+        <v>115</v>
+      </c>
+      <c r="D17" s="62">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E17" s="63">
+        <v>71</v>
+      </c>
+      <c r="F17" s="62">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G17" s="26">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="62">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C18" s="63">
         <v>18</v>
       </c>
-      <c r="G12" s="27">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="63">
-        <v>8.9</v>
-      </c>
-      <c r="C13" s="64">
-        <v>14</v>
-      </c>
-      <c r="D13" s="63">
-        <v>14</v>
-      </c>
-      <c r="E13" s="64">
-        <v>22</v>
-      </c>
-      <c r="F13" s="63">
-        <v>15</v>
-      </c>
-      <c r="G13" s="27">
+      <c r="D18" s="62">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E18" s="63">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F18" s="62">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G18" s="26">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="62">
+        <v>3.2</v>
+      </c>
+      <c r="C19" s="63">
+        <v>24</v>
+      </c>
+      <c r="D19" s="62">
+        <v>3.3</v>
+      </c>
+      <c r="E19" s="63">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="63">
-        <v>1.4</v>
-      </c>
-      <c r="C14" s="64">
-        <v>6.1</v>
-      </c>
-      <c r="D14" s="63">
-        <v>1.4</v>
-      </c>
-      <c r="E14" s="64">
-        <v>6.1</v>
-      </c>
-      <c r="F14" s="63">
-        <v>1.4</v>
-      </c>
-      <c r="G14" s="27">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="66">
+      <c r="F19" s="62">
+        <v>3.2</v>
+      </c>
+      <c r="G19" s="26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="65">
         <v>40</v>
       </c>
-      <c r="C15" s="67">
-        <v>110</v>
-      </c>
-      <c r="D15" s="66">
-        <v>60</v>
-      </c>
-      <c r="E15" s="67">
-        <v>177</v>
-      </c>
-      <c r="F15" s="66">
-        <v>67</v>
-      </c>
-      <c r="G15" s="85">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="63">
-        <v>7.1</v>
-      </c>
-      <c r="C16" s="64">
-        <v>31</v>
-      </c>
-      <c r="D16" s="63">
-        <v>7.1</v>
-      </c>
-      <c r="E16" s="64">
-        <v>31</v>
-      </c>
-      <c r="F16" s="63">
-        <v>7.1</v>
-      </c>
-      <c r="G16" s="27">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="C20" s="66">
         <v>188</v>
       </c>
-      <c r="B17" s="63">
-        <v>20.2</v>
-      </c>
-      <c r="C17" s="64">
-        <v>115</v>
-      </c>
-      <c r="D17" s="63">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="E17" s="64">
-        <v>71</v>
-      </c>
-      <c r="F17" s="63">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="G17" s="27">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="63">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C18" s="64">
-        <v>18</v>
-      </c>
-      <c r="D18" s="63">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E18" s="64">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F18" s="63">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G18" s="27">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="63">
-        <v>3.2</v>
-      </c>
-      <c r="C19" s="64">
-        <v>24</v>
-      </c>
-      <c r="D19" s="63">
-        <v>3.3</v>
-      </c>
-      <c r="E19" s="64">
-        <v>23</v>
-      </c>
-      <c r="F19" s="63">
-        <v>3.2</v>
-      </c>
-      <c r="G19" s="27">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="D20" s="65">
+        <v>39</v>
+      </c>
+      <c r="E20" s="66">
+        <v>135</v>
+      </c>
+      <c r="F20" s="65">
+        <v>39</v>
+      </c>
+      <c r="G20" s="84">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="66">
-        <v>40</v>
-      </c>
-      <c r="C20" s="67">
-        <v>188</v>
-      </c>
-      <c r="D20" s="66">
-        <v>39</v>
-      </c>
-      <c r="E20" s="67">
-        <v>135</v>
-      </c>
-      <c r="F20" s="66">
-        <v>39</v>
-      </c>
-      <c r="G20" s="85">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="B21" s="62">
+        <v>5</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="D21" s="62">
+        <v>7.2</v>
+      </c>
+      <c r="E21" s="63"/>
+      <c r="F21" s="62">
+        <v>9.4</v>
+      </c>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="63">
-        <v>5</v>
-      </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="63">
-        <v>7.2</v>
-      </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="63">
-        <v>9.4</v>
-      </c>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="B22" s="62">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C22" s="63">
+        <v>38</v>
+      </c>
+      <c r="D22" s="62">
+        <v>13.3</v>
+      </c>
+      <c r="E22" s="63">
+        <v>58</v>
+      </c>
+      <c r="F22" s="62">
+        <v>13.3</v>
+      </c>
+      <c r="G22" s="26">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B22" s="63">
+      <c r="B23" s="62">
+        <v>3.7</v>
+      </c>
+      <c r="C23" s="63">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C22" s="64">
-        <v>38</v>
-      </c>
-      <c r="D22" s="63">
-        <v>13.3</v>
-      </c>
-      <c r="E22" s="64">
-        <v>58</v>
-      </c>
-      <c r="F22" s="63">
-        <v>13.3</v>
-      </c>
-      <c r="G22" s="27">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="D23" s="62">
+        <v>7.3</v>
+      </c>
+      <c r="E23" s="63">
+        <v>17.3</v>
+      </c>
+      <c r="F23" s="62">
+        <v>7.3</v>
+      </c>
+      <c r="G23" s="26">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="B23" s="63">
-        <v>3.7</v>
-      </c>
-      <c r="C23" s="64">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D23" s="63">
-        <v>7.3</v>
-      </c>
-      <c r="E23" s="64">
-        <v>17.3</v>
-      </c>
-      <c r="F23" s="63">
-        <v>7.3</v>
-      </c>
-      <c r="G23" s="27">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="68">
+      <c r="B24" s="67">
         <v>0.8</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="68">
+      <c r="C24" s="68"/>
+      <c r="D24" s="67">
         <v>1.8</v>
       </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="68">
+      <c r="E24" s="68"/>
+      <c r="F24" s="67">
         <v>1.8</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="51"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="D27" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="24" t="s">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="B28" s="25">
+        <v>0</v>
+      </c>
+      <c r="C28" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="D28" s="26">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="B28" s="26">
-        <v>0</v>
-      </c>
-      <c r="C28" s="26">
-        <v>1.2</v>
-      </c>
-      <c r="D28" s="27">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="B29" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C29" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="D29" s="26">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="B29" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="C29" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="D29" s="27">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="B30" s="71">
+      <c r="B30" s="70">
         <f>B21-SUM(B28:B29)</f>
         <v>3.5</v>
       </c>
-      <c r="C30" s="71">
+      <c r="C30" s="70">
         <f>D21-SUM(C28:C29)</f>
         <v>3.5</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="51">
         <f>F21-SUM(D28:D29)</f>
         <v>3.5</v>
       </c>
@@ -4515,7 +4994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -4528,15 +5007,15 @@
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:3" s="55" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="C1" s="74" t="s">
         <v>222</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4640,7 +5119,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="1">
         <f>SUM(B2:B10)</f>
@@ -4652,11 +5131,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4672,136 +5151,136 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="E1" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="F1" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="G1" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="H1" s="73" t="s">
         <v>215</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2">
         <f>SUM('E3 Data'!C8,'E3 Data'!C10)*'Flexibility Points'!D2</f>
         <v>58547.999999999993</v>
       </c>
-      <c r="C2" s="79">
+      <c r="C2" s="78">
         <v>0</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="72">
         <f>SUM('E3 Data'!B83:B86)*'Flexibility Points'!D6</f>
         <v>8276.6107865268004</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="38">
         <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
         <v>30716</v>
       </c>
-      <c r="G2" s="73">
+      <c r="G2" s="72">
         <f>SUM(B2:F2)</f>
         <v>97540.610786526799</v>
       </c>
-      <c r="H2" s="73">
+      <c r="H2" s="72">
         <f>G2*'Transmission Connectivity'!$B$60</f>
         <v>18442.510828436869</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3">
         <f>SUM('E3 Data'!C8,'E3 Data'!C10)*'Flexibility Points'!D2</f>
         <v>58547.999999999993</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="78">
         <v>0</v>
       </c>
-      <c r="D3" s="73">
+      <c r="D3" s="72">
         <f>SUM('E3 Data'!B83:B86)*'Flexibility Points'!D6</f>
         <v>8276.6107865268004</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
         <v>30716</v>
       </c>
-      <c r="G3" s="73">
+      <c r="G3" s="72">
         <f t="shared" ref="G3:G7" si="0">SUM(B3:F3)</f>
         <v>97540.610786526799</v>
       </c>
-      <c r="H3" s="73">
+      <c r="H3" s="72">
         <f>G3*'Transmission Connectivity'!$B$60</f>
         <v>18442.510828436869</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4">
         <f>SUM('E3 Data'!C8,'E3 Data'!C10)*'Flexibility Points'!D2</f>
         <v>58547.999999999993</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="78">
         <v>0</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="72">
         <f>SUM('E3 Data'!B83:B86)*'Flexibility Points'!D6</f>
         <v>8276.6107865268004</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="38">
         <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
         <v>30716</v>
       </c>
-      <c r="G4" s="73">
+      <c r="G4" s="72">
         <f t="shared" si="0"/>
         <v>97540.610786526799</v>
       </c>
-      <c r="H4" s="73">
+      <c r="H4" s="72">
         <f>G4*'Transmission Connectivity'!$B$60</f>
         <v>18442.510828436869</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5">
         <f>'LCGS Data'!B18*10^3*'Flexibility Points'!D2</f>
         <v>55799.999999999993</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="72">
         <f>'LCGS Data'!B23*10^3*'Flexibility Points'!D7</f>
         <v>4753.4722222222217</v>
       </c>
-      <c r="D5" s="73">
+      <c r="D5" s="72">
         <f>SUM('LCGS Data'!B29:B30)*10^3*'Flexibility Points'!D6</f>
         <v>15332.735803124862</v>
       </c>
@@ -4809,32 +5288,32 @@
         <f>'LCGS Data'!B28*10^3*'Flexibility Points'!D3</f>
         <v>0</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
         <v>30716</v>
       </c>
-      <c r="G5" s="73">
+      <c r="G5" s="72">
         <f t="shared" si="0"/>
         <v>106602.20802534708</v>
       </c>
-      <c r="H5" s="73">
+      <c r="H5" s="72">
         <f>G5*'Transmission Connectivity'!$B$60</f>
         <v>20155.834169887185</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6">
         <f>'LCGS Data'!D18*10^3*'Flexibility Points'!D2</f>
         <v>55799.999999999993</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="72">
         <f>'LCGS Data'!D23*10^3*'Flexibility Points'!D7</f>
         <v>9378.4722222222208</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="72">
         <f>SUM('LCGS Data'!C29:C30)*10^3*'Flexibility Points'!D6</f>
         <v>18399.282963749833</v>
       </c>
@@ -4842,32 +5321,32 @@
         <f>'LCGS Data'!C28*10^3*'Flexibility Points'!D3</f>
         <v>7199.9999999999991</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
         <v>30716</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="72">
         <f t="shared" si="0"/>
         <v>121493.75518597204</v>
       </c>
-      <c r="H6" s="73">
+      <c r="H6" s="72">
         <f>G6*'Transmission Connectivity'!$B$60</f>
         <v>22971.456478866407</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7">
         <f>'LCGS Data'!F18*10^3*'Flexibility Points'!D2</f>
         <v>55799.999999999993</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="72">
         <f>'LCGS Data'!F23*10^3*'Flexibility Points'!D7</f>
         <v>9378.4722222222208</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="72">
         <f>SUM('LCGS Data'!D29:D30)*10^3*'Flexibility Points'!D6</f>
         <v>25145.686717124772</v>
       </c>
@@ -4875,218 +5354,218 @@
         <f>'LCGS Data'!D28*10^3*'Flexibility Points'!D3</f>
         <v>7199.9999999999991</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="38">
         <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
         <v>30716</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="72">
         <f t="shared" si="0"/>
         <v>128240.15893934699</v>
       </c>
-      <c r="H7" s="73">
+      <c r="H7" s="72">
         <f>G7*'Transmission Connectivity'!$B$60</f>
         <v>24247.034141045766</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="74" t="s">
         <v>217</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="76">
+        <v>203</v>
+      </c>
+      <c r="B10" s="75">
         <f>'E3 Data'!B60*('E3 Data'!B48/SUM('E3 Data'!B42:B44))</f>
         <v>6.1893058553227041E-3</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="76">
         <f>SUM('E3 Data'!B21:B23,'E3 Data'!B29)</f>
         <v>19476</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" s="76">
+        <v>204</v>
+      </c>
+      <c r="B11" s="75">
         <f>'E3 Data'!C60*('E3 Data'!C48/SUM('E3 Data'!C42:C44))</f>
         <v>4.4270747740345111E-2</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="76">
         <f>SUM('E3 Data'!C21:C23,'E3 Data'!C29)</f>
         <v>25493</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="76">
+        <v>205</v>
+      </c>
+      <c r="B12" s="75">
         <f>'E3 Data'!D60*('E3 Data'!D48/SUM('E3 Data'!D42:D44))</f>
         <v>0.18340437869098253</v>
       </c>
-      <c r="C12" s="77">
+      <c r="C12" s="76">
         <f>SUM('E3 Data'!D21:D23,'E3 Data'!D29)</f>
         <v>34090</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="76">
+        <v>206</v>
+      </c>
+      <c r="B13" s="75">
         <f>'LCGS Data'!B3*('LCGS Data'!C15/SUM('LCGS Data'!C12:C13))</f>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="C13" s="77">
+      <c r="C13" s="76">
         <f>SUM('LCGS Data'!B12:B13)*10^3</f>
         <v>22900</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="76">
+        <v>207</v>
+      </c>
+      <c r="B14" s="75">
         <f>'LCGS Data'!C3*('LCGS Data'!E15/SUM('LCGS Data'!E12:E13))</f>
         <v>3.1052631578947366E-2</v>
       </c>
-      <c r="C14" s="77">
+      <c r="C14" s="76">
         <f>SUM('LCGS Data'!D12:D13)*10^3</f>
         <v>29000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" s="76">
+        <v>208</v>
+      </c>
+      <c r="B15" s="75">
         <f>'LCGS Data'!D3*('LCGS Data'!G15/SUM('LCGS Data'!G12:G13))</f>
         <v>4.7307692307692308E-2</v>
       </c>
-      <c r="C15" s="77">
+      <c r="C15" s="76">
         <f>SUM('LCGS Data'!F12:F13)*10^3</f>
         <v>33000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="76">
+        <v>203</v>
+      </c>
+      <c r="B18" s="75">
         <f>C10/H2</f>
         <v>1.0560384202117195</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="77">
         <f>B10</f>
         <v>6.1893058553227041E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" s="76">
+        <v>204</v>
+      </c>
+      <c r="B19" s="75">
         <f t="shared" ref="B19:B23" si="1">C11/H3</f>
         <v>1.3822955148109142</v>
       </c>
-      <c r="C19" s="78">
+      <c r="C19" s="77">
         <f t="shared" ref="C19:C23" si="2">B11</f>
         <v>4.4270747740345111E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="76">
+        <v>205</v>
+      </c>
+      <c r="B20" s="75">
         <f t="shared" si="1"/>
         <v>1.848446793233596</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="77">
         <f t="shared" si="2"/>
         <v>0.18340437869098253</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="76">
+        <v>206</v>
+      </c>
+      <c r="B21" s="75">
         <f t="shared" si="1"/>
         <v>1.1361474701063279</v>
       </c>
-      <c r="C21" s="78">
+      <c r="C21" s="77">
         <f t="shared" si="2"/>
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" s="76">
+        <v>207</v>
+      </c>
+      <c r="B22" s="75">
         <f t="shared" si="1"/>
         <v>1.262436277241707</v>
       </c>
-      <c r="C22" s="78">
+      <c r="C22" s="77">
         <f t="shared" si="2"/>
         <v>3.1052631578947366E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" s="76">
+        <v>208</v>
+      </c>
+      <c r="B23" s="75">
         <f t="shared" si="1"/>
         <v>1.3609911962031296</v>
       </c>
-      <c r="C23" s="78">
+      <c r="C23" s="77">
         <f t="shared" si="2"/>
         <v>4.7307692307692308E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>224</v>
-      </c>
-      <c r="B27" s="81">
+        <v>223</v>
+      </c>
+      <c r="B27" s="80">
         <v>1</v>
       </c>
       <c r="C27">
@@ -5098,11 +5577,11 @@
         <f>A19</f>
         <v>E3 40% RPS</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B28" s="75">
         <f t="shared" ref="B28:C28" si="3">B19</f>
         <v>1.3822955148109142</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="75">
         <f t="shared" si="3"/>
         <v>4.4270747740345111E-2</v>
       </c>
@@ -5112,11 +5591,11 @@
         <f t="shared" ref="A29:C29" si="4">A20</f>
         <v>E3 50% RPS Large Solar</v>
       </c>
-      <c r="B29" s="76">
+      <c r="B29" s="75">
         <f t="shared" si="4"/>
         <v>1.848446793233596</v>
       </c>
-      <c r="C29" s="76">
+      <c r="C29" s="75">
         <f t="shared" si="4"/>
         <v>0.18340437869098253</v>
       </c>
@@ -5126,11 +5605,11 @@
         <f t="shared" ref="A30:C30" si="5">A21</f>
         <v>LGCS Baseline</v>
       </c>
-      <c r="B30" s="76">
+      <c r="B30" s="75">
         <f t="shared" si="5"/>
         <v>1.1361474701063279</v>
       </c>
-      <c r="C30" s="76">
+      <c r="C30" s="75">
         <f t="shared" si="5"/>
         <v>1.7500000000000002E-2</v>
       </c>
@@ -5140,11 +5619,11 @@
         <f t="shared" ref="A31:C31" si="6">A22</f>
         <v>LGCS Target</v>
       </c>
-      <c r="B31" s="76">
+      <c r="B31" s="75">
         <f t="shared" si="6"/>
         <v>1.262436277241707</v>
       </c>
-      <c r="C31" s="76">
+      <c r="C31" s="75">
         <f t="shared" si="6"/>
         <v>3.1052631578947366E-2</v>
       </c>
@@ -5154,11 +5633,11 @@
         <f t="shared" ref="A32:C32" si="7">A23</f>
         <v>LGCS Accelerated</v>
       </c>
-      <c r="B32" s="76">
+      <c r="B32" s="75">
         <f t="shared" si="7"/>
         <v>1.3609911962031296</v>
       </c>
-      <c r="C32" s="76">
+      <c r="C32" s="75">
         <f t="shared" si="7"/>
         <v>4.7307692307692308E-2</v>
       </c>
@@ -5169,39 +5648,6 @@
     <ignoredError sqref="C10:C15" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2">
-        <v>0.19127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5222,15 +5668,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2">
-        <v>-0.33263999999999999</v>
+        <v>0.19127</v>
       </c>
     </row>
   </sheetData>
@@ -5255,15 +5701,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2">
-        <v>0.14419000000000001</v>
+        <v>-0.33263999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5272,6 +5718,39 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2">
+        <v>0.14419000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -5281,52 +5760,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5334,7 +5813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -5347,12 +5826,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2">
         <v>1.4</v>
@@ -5365,14 +5844,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
   </cols>
@@ -5385,7 +5864,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>28</v>
@@ -5481,6 +5960,372 @@
         <f t="shared" si="0"/>
         <v>1.2847222222222221</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="90" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="93" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="93" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="93" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="93" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="93" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="93" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="93" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="93"/>
+    </row>
+    <row r="19" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="93" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="93" t="s">
+        <v>314</v>
+      </c>
+      <c r="B20" s="94">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="93" t="s">
+        <v>315</v>
+      </c>
+      <c r="B21" s="94">
+        <v>0.75</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="93" t="s">
+        <v>341</v>
+      </c>
+      <c r="B22" s="94">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="93" t="s">
+        <v>342</v>
+      </c>
+      <c r="B23" s="94">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="93"/>
+    </row>
+    <row r="25" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="92" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" s="100">
+        <f>D3*B20*B21*B22*B23</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="93"/>
+    </row>
+    <row r="27" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="93" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="93" t="s">
+        <v>319</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="93"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="92" t="s">
+        <v>322</v>
+      </c>
+      <c r="B30" s="96" t="s">
+        <v>323</v>
+      </c>
+      <c r="C30" s="92" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" s="97">
+        <v>1.3</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" s="97">
+        <v>6.6</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="B33" s="97">
+        <v>120</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+    </row>
+    <row r="36" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="92" t="s">
+        <v>322</v>
+      </c>
+      <c r="B42" s="95" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="B43" s="98">
+        <f>B31/10^3</f>
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="B44" s="98">
+        <f t="shared" ref="B44:B45" si="2">B32/10^3</f>
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="B45" s="98">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="92" t="s">
+        <v>334</v>
+      </c>
+      <c r="B49" s="95" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="D49" s="95" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="B50" s="94">
+        <v>0.6</v>
+      </c>
+      <c r="C50" s="94">
+        <v>0.39</v>
+      </c>
+      <c r="D50" s="94">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="B51" s="94">
+        <v>0</v>
+      </c>
+      <c r="C51" s="94">
+        <v>1</v>
+      </c>
+      <c r="D51" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" s="94">
+        <v>1</v>
+      </c>
+      <c r="C52" s="94">
+        <v>0</v>
+      </c>
+      <c r="D52" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+    </row>
+    <row r="57" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="92" t="s">
+        <v>305</v>
+      </c>
+      <c r="B57" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="D57" s="92"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>301</v>
+      </c>
+      <c r="B58" s="101">
+        <f>B$25*(B50*B$43+C50*B$44+D50*B$45)</f>
+        <v>1.6394399999999998E-3</v>
+      </c>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>302</v>
+      </c>
+      <c r="B59" s="101">
+        <f t="shared" ref="B59:B60" si="3">B$25*(B51*B$43+C51*B$44+D51*B$45)</f>
+        <v>2.3760000000000001E-3</v>
+      </c>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>300</v>
+      </c>
+      <c r="B60" s="101">
+        <f t="shared" si="3"/>
+        <v>4.6799999999999994E-4</v>
+      </c>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="99"/>
+      <c r="D61" s="38"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="99"/>
+      <c r="D62" s="38"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="91"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5513,7 +6358,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="4">
         <f>'Flexibility Points'!D2</f>
@@ -5581,7 +6426,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="4">
         <f>'Flexibility Points'!D3</f>
@@ -5649,7 +6494,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5662,13 +6507,90 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="91">
+        <f>'Flexibility Points'!B58</f>
+        <v>1.6394399999999998E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="91">
+        <f>'Flexibility Points'!B59</f>
+        <v>2.3760000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="91">
+        <f>'Flexibility Points'!B60</f>
+        <v>4.6799999999999994E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
@@ -5678,27 +6600,27 @@
     </row>
     <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
@@ -5815,13 +6737,13 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28">
         <v>31</v>
@@ -5837,27 +6759,27 @@
     </row>
     <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -5920,7 +6842,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -5930,7 +6852,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -5944,7 +6866,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B55" s="4">
         <f>'Flexibility Points'!D3</f>
@@ -5953,7 +6875,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B56" s="4">
         <f>'Flexibility Points'!D7</f>
@@ -5976,40 +6898,247 @@
       <c r="B60" s="14">
         <f>B39/B58</f>
         <v>0.18907520344320336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A66" s="85" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>2016</v>
+      </c>
+      <c r="C67">
+        <v>2017</v>
+      </c>
+      <c r="D67">
+        <v>2018</v>
+      </c>
+      <c r="E67">
+        <v>2019</v>
+      </c>
+      <c r="F67">
+        <v>2020</v>
+      </c>
+      <c r="G67">
+        <v>2021</v>
+      </c>
+      <c r="H67">
+        <v>2022</v>
+      </c>
+      <c r="I67">
+        <v>2023</v>
+      </c>
+      <c r="J67">
+        <v>2024</v>
+      </c>
+      <c r="K67">
+        <v>2025</v>
+      </c>
+      <c r="L67">
+        <v>2026</v>
+      </c>
+      <c r="M67">
+        <v>2027</v>
+      </c>
+      <c r="N67">
+        <v>2028</v>
+      </c>
+      <c r="O67">
+        <v>2029</v>
+      </c>
+      <c r="P67">
+        <v>2030</v>
+      </c>
+      <c r="Q67">
+        <v>2031</v>
+      </c>
+      <c r="R67">
+        <v>2032</v>
+      </c>
+      <c r="S67">
+        <v>2033</v>
+      </c>
+      <c r="T67">
+        <v>2034</v>
+      </c>
+      <c r="U67">
+        <v>2035</v>
+      </c>
+      <c r="V67">
+        <v>2036</v>
+      </c>
+      <c r="W67">
+        <v>2037</v>
+      </c>
+      <c r="X67">
+        <v>2038</v>
+      </c>
+      <c r="Y67">
+        <v>2039</v>
+      </c>
+      <c r="Z67">
+        <v>2040</v>
+      </c>
+      <c r="AA67">
+        <v>2041</v>
+      </c>
+      <c r="AB67">
+        <v>2042</v>
+      </c>
+      <c r="AC67">
+        <v>2043</v>
+      </c>
+      <c r="AD67">
+        <v>2044</v>
+      </c>
+      <c r="AE67">
+        <v>2045</v>
+      </c>
+      <c r="AF67">
+        <v>2046</v>
+      </c>
+      <c r="AG67">
+        <v>2047</v>
+      </c>
+      <c r="AH67">
+        <v>2048</v>
+      </c>
+      <c r="AI67">
+        <v>2049</v>
+      </c>
+      <c r="AJ67">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>295</v>
+      </c>
+      <c r="B68">
+        <v>175797872.34042555</v>
+      </c>
+      <c r="C68">
+        <v>175930851.06382981</v>
+      </c>
+      <c r="D68">
+        <v>176063829.78723407</v>
+      </c>
+      <c r="E68">
+        <v>176196808.51063833</v>
+      </c>
+      <c r="F68">
+        <v>176329787.23404258</v>
+      </c>
+      <c r="G68">
+        <v>176462765.95744684</v>
+      </c>
+      <c r="H68">
+        <v>176595744.6808511</v>
+      </c>
+      <c r="I68">
+        <v>176728723.40425536</v>
+      </c>
+      <c r="J68">
+        <v>176861702.12765962</v>
+      </c>
+      <c r="K68">
+        <v>176994680.85106388</v>
+      </c>
+      <c r="L68">
+        <v>177127659.57446814</v>
+      </c>
+      <c r="M68">
+        <v>177260638.29787239</v>
+      </c>
+      <c r="N68">
+        <v>177393617.02127665</v>
+      </c>
+      <c r="O68">
+        <v>177526595.74468091</v>
+      </c>
+      <c r="P68">
+        <v>177659574.46808517</v>
+      </c>
+      <c r="Q68">
+        <v>177792553.19148943</v>
+      </c>
+      <c r="R68">
+        <v>177925531.91489369</v>
+      </c>
+      <c r="S68">
+        <v>178058510.63829795</v>
+      </c>
+      <c r="T68">
+        <v>178191489.3617022</v>
+      </c>
+      <c r="U68">
+        <v>178324468.08510646</v>
+      </c>
+      <c r="V68">
+        <v>178457446.80851072</v>
+      </c>
+      <c r="W68">
+        <v>178590425.53191498</v>
+      </c>
+      <c r="X68">
+        <v>178723404.25531924</v>
+      </c>
+      <c r="Y68">
+        <v>178856382.9787235</v>
+      </c>
+      <c r="Z68">
+        <v>178989361.70212775</v>
+      </c>
+      <c r="AA68">
+        <v>179122340.42553201</v>
+      </c>
+      <c r="AB68">
+        <v>179255319.14893627</v>
+      </c>
+      <c r="AC68">
+        <v>179388297.87234053</v>
+      </c>
+      <c r="AD68">
+        <v>179521276.59574479</v>
+      </c>
+      <c r="AE68">
+        <v>179654255.31914905</v>
+      </c>
+      <c r="AF68">
+        <v>179787234.04255331</v>
+      </c>
+      <c r="AG68">
+        <v>179920212.76595756</v>
+      </c>
+      <c r="AH68">
+        <v>180053191.48936182</v>
+      </c>
+      <c r="AI68">
+        <v>180186170.21276608</v>
+      </c>
+      <c r="AJ68">
+        <v>180319148.93617034</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="15">
-        <f>'Transmission Connectivity'!B60</f>
-        <v>0.18907520344320336</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/InputData/elec/FPC/Flexibility Point Calculations.xlsx
+++ b/InputData/elec/FPC/Flexibility Point Calculations.xlsx
@@ -998,9 +998,6 @@
     <t>FP per EV</t>
   </si>
   <si>
-    <t>It is possible that electric vehicles (Evs) may provide flexibility points, either if they alter their charging rate</t>
-  </si>
-  <si>
     <t>or if they will partially discharge at times of need to provide power to the grid in times of need.  However,</t>
   </si>
   <si>
@@ -1019,9 +1016,6 @@
     <t>D) some EVs will already be fully charged, so they cannot contribute to balancing unless discharging is permitted</t>
   </si>
   <si>
-    <t>share of regions that support using Evs for balancing</t>
-  </si>
-  <si>
     <t>share of owners who allow their EV to be used for balancing</t>
   </si>
   <si>
@@ -1031,9 +1025,6 @@
     <t>FP per MW of EV battery capacity</t>
   </si>
   <si>
-    <t>We need the maximum charge (or discharge) rate of Evs (in MW), not the battery capacity (in kWh).</t>
-  </si>
-  <si>
     <t>This has more to do with the charger and less to do with the size of the battery inside the EV.</t>
   </si>
   <si>
@@ -1100,16 +1091,25 @@
     <t>This will be overwhelmingly determined by whatever is the default setting</t>
   </si>
   <si>
-    <t>share of Evs plugged in at peak electricity demand times</t>
-  </si>
-  <si>
-    <t>share of Evs not already fully charged, or which allow discharging</t>
-  </si>
-  <si>
     <t>Next, we conver to MW, to match the unit used for FP in the EPS:</t>
   </si>
   <si>
     <t>Typical Rate (MW)</t>
+  </si>
+  <si>
+    <t>It is possible that electric vehicles (EVs) may provide flexibility points, either if they alter their charging rate</t>
+  </si>
+  <si>
+    <t>share of regions that support using EVs for balancing</t>
+  </si>
+  <si>
+    <t>share of EVs plugged in at peak electricity demand times</t>
+  </si>
+  <si>
+    <t>share of EVs not already fully charged, or which allow discharging</t>
+  </si>
+  <si>
+    <t>We need the maximum charge (or discharge) rate of EVs (in MW), not the battery capacity (in kWh).</t>
   </si>
 </sst>
 </file>
@@ -1504,15 +1504,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1533,6 +1524,15 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1675,11 +1675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204176768"/>
-        <c:axId val="204191616"/>
+        <c:axId val="279245952"/>
+        <c:axId val="279247872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204176768"/>
+        <c:axId val="279245952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1722,12 +1722,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204191616"/>
+        <c:crossAx val="279247872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204191616"/>
+        <c:axId val="279247872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,7 +1766,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204176768"/>
+        <c:crossAx val="279245952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1918,11 +1918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211575936"/>
-        <c:axId val="212337408"/>
+        <c:axId val="279535616"/>
+        <c:axId val="279537536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211575936"/>
+        <c:axId val="279535616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,12 +1950,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212337408"/>
+        <c:crossAx val="279537536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212337408"/>
+        <c:axId val="279537536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,7 +1984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211575936"/>
+        <c:crossAx val="279535616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4505,18 +4505,18 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="87" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="87" t="s">
+      <c r="E6" s="100"/>
+      <c r="F6" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="89"/>
+      <c r="G6" s="101"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
@@ -5962,162 +5962,162 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="87" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="90" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="90" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93" t="s">
+    <row r="13" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="90" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+    <row r="14" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="90" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="93" t="s">
+    <row r="15" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="90" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="93" t="s">
+    <row r="16" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="90" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="93" t="s">
+    <row r="17" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="90" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="93" t="s">
+    <row r="18" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="90"/>
+    </row>
+    <row r="19" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="90" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="90" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="91">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="90" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
-    </row>
-    <row r="19" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="93" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="93" t="s">
-        <v>314</v>
-      </c>
-      <c r="B20" s="94">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+      <c r="B21" s="91">
+        <v>0.75</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="90" t="s">
+        <v>342</v>
+      </c>
+      <c r="B22" s="91">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="90" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" s="91">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="90"/>
+    </row>
+    <row r="25" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="89" t="s">
         <v>315</v>
       </c>
-      <c r="B21" s="94">
-        <v>0.75</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93" t="s">
-        <v>341</v>
-      </c>
-      <c r="B22" s="94">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="93" t="s">
-        <v>342</v>
-      </c>
-      <c r="B23" s="94">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
-    </row>
-    <row r="25" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="92" t="s">
-        <v>317</v>
-      </c>
-      <c r="B25" s="100">
+      <c r="B25" s="97">
         <f>D3*B20*B21*B22*B23</f>
         <v>0.36</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="93"/>
+      <c r="A26" s="90"/>
     </row>
     <row r="27" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="93" t="s">
-        <v>318</v>
+      <c r="A27" s="90" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="93" t="s">
-        <v>319</v>
+      <c r="A28" s="90" t="s">
+        <v>316</v>
       </c>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="93"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="92" t="s">
-        <v>322</v>
-      </c>
-      <c r="B30" s="96" t="s">
+      <c r="A30" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30" s="93" t="s">
+        <v>320</v>
+      </c>
+      <c r="C30" s="89" t="s">
         <v>323</v>
-      </c>
-      <c r="C30" s="92" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="B31" s="97">
+        <v>317</v>
+      </c>
+      <c r="B31" s="94">
         <v>1.3</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="B32" s="97">
+        <v>321</v>
+      </c>
+      <c r="B32" s="94">
         <v>6.6</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="B33" s="97">
+        <v>322</v>
+      </c>
+      <c r="B33" s="94">
         <v>120</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6127,68 +6127,68 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
     </row>
     <row r="36" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="92" t="s">
-        <v>322</v>
-      </c>
-      <c r="B42" s="95" t="s">
-        <v>344</v>
+      <c r="A42" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="B42" s="92" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="B43" s="98">
+        <v>317</v>
+      </c>
+      <c r="B43" s="95">
         <f>B31/10^3</f>
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="B44" s="98">
+        <v>321</v>
+      </c>
+      <c r="B44" s="95">
         <f t="shared" ref="B44:B45" si="2">B32/10^3</f>
         <v>6.6E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="B45" s="98">
+        <v>322</v>
+      </c>
+      <c r="B45" s="95">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
@@ -6196,35 +6196,35 @@
     <row r="46" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="92" t="s">
+      <c r="A49" s="89" t="s">
+        <v>331</v>
+      </c>
+      <c r="B49" s="92" t="s">
+        <v>332</v>
+      </c>
+      <c r="C49" s="92" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49" s="92" t="s">
         <v>334</v>
-      </c>
-      <c r="B49" s="95" t="s">
-        <v>335</v>
-      </c>
-      <c r="C49" s="95" t="s">
-        <v>336</v>
-      </c>
-      <c r="D49" s="95" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="B50" s="94">
+      <c r="B50" s="91">
         <v>0.6</v>
       </c>
-      <c r="C50" s="94">
+      <c r="C50" s="91">
         <v>0.39</v>
       </c>
-      <c r="D50" s="94">
+      <c r="D50" s="91">
         <v>0.01</v>
       </c>
     </row>
@@ -6232,13 +6232,13 @@
       <c r="A51" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="B51" s="94">
+      <c r="B51" s="91">
         <v>0</v>
       </c>
-      <c r="C51" s="94">
+      <c r="C51" s="91">
         <v>1</v>
       </c>
-      <c r="D51" s="94">
+      <c r="D51" s="91">
         <v>0</v>
       </c>
     </row>
@@ -6246,20 +6246,20 @@
       <c r="A52" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="B52" s="94">
+      <c r="B52" s="91">
         <v>1</v>
       </c>
-      <c r="C52" s="94">
+      <c r="C52" s="91">
         <v>0</v>
       </c>
-      <c r="D52" s="94">
+      <c r="D52" s="91">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6272,19 +6272,19 @@
       <c r="D56" s="38"/>
     </row>
     <row r="57" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="92" t="s">
+      <c r="A57" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="B57" s="92" t="s">
+      <c r="B57" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="D57" s="92"/>
+      <c r="D57" s="89"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>301</v>
       </c>
-      <c r="B58" s="101">
+      <c r="B58" s="98">
         <f>B$25*(B50*B$43+C50*B$44+D50*B$45)</f>
         <v>1.6394399999999998E-3</v>
       </c>
@@ -6295,7 +6295,7 @@
       <c r="A59" t="s">
         <v>302</v>
       </c>
-      <c r="B59" s="101">
+      <c r="B59" s="98">
         <f t="shared" ref="B59:B60" si="3">B$25*(B51*B$43+C51*B$44+D51*B$45)</f>
         <v>2.3760000000000001E-3</v>
       </c>
@@ -6306,7 +6306,7 @@
       <c r="A60" t="s">
         <v>300</v>
       </c>
-      <c r="B60" s="101">
+      <c r="B60" s="98">
         <f t="shared" si="3"/>
         <v>4.6799999999999994E-4</v>
       </c>
@@ -6314,18 +6314,18 @@
       <c r="D60" s="38"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="99"/>
+      <c r="C61" s="96"/>
       <c r="D61" s="38"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="99"/>
+      <c r="C62" s="96"/>
       <c r="D62" s="38"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="91"/>
+      <c r="C63" s="88"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="91"/>
+      <c r="C64" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6528,7 +6528,7 @@
       <c r="A2" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="88">
         <f>'Flexibility Points'!B58</f>
         <v>1.6394399999999998E-3</v>
       </c>
@@ -6537,7 +6537,7 @@
       <c r="A3" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="91">
+      <c r="B3" s="88">
         <f>'Flexibility Points'!B59</f>
         <v>2.3760000000000001E-3</v>
       </c>
@@ -6570,7 +6570,7 @@
       <c r="A7" t="s">
         <v>300</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="88">
         <f>'Flexibility Points'!B60</f>
         <v>4.6799999999999994E-4</v>
       </c>

--- a/InputData/elec/FPC/Flexibility Point Calculations.xlsx
+++ b/InputData/elec/FPC/Flexibility Point Calculations.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us WIP\InputData\elec\FPC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="24915" windowHeight="12075"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <sheet name="FPC-FPPpUPH" sheetId="4" r:id="rId4"/>
     <sheet name="FPC-FPPpUBS" sheetId="6" r:id="rId5"/>
     <sheet name="FPC-FPPpUDRC" sheetId="5" r:id="rId6"/>
-    <sheet name="FPC-FPPpUTCaMRB" sheetId="16" r:id="rId7"/>
+    <sheet name="FPC-FPPpUTCAMRB" sheetId="16" r:id="rId7"/>
     <sheet name="FPC-FPPpEV" sheetId="19" r:id="rId8"/>
     <sheet name="Transmission Connectivity" sheetId="8" r:id="rId9"/>
     <sheet name="FPC-BTCC" sheetId="7" r:id="rId10"/>
@@ -27,7 +32,7 @@
     <sheet name="Target Max FP Used" sheetId="18" r:id="rId18"/>
     <sheet name="FPC-TMFoFPU" sheetId="17" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -869,9 +874,6 @@
     <t>FPC Flexibility Points Provided per Unit Transmission Capacity Across Modeled Region Border</t>
   </si>
   <si>
-    <t>Transmission across Modeled Region Border</t>
-  </si>
-  <si>
     <t>For flexibility points from transmission capacity across the modeled region border, we assume the</t>
   </si>
   <si>
@@ -899,9 +901,6 @@
     <t>Battery Storage</t>
   </si>
   <si>
-    <t>FPC Flexibility Points Provided Per Unit Peaker Capacity</t>
-  </si>
-  <si>
     <t>Peakers</t>
   </si>
   <si>
@@ -1110,12 +1109,18 @@
   </si>
   <si>
     <t>We need the maximum charge (or discharge) rate of EVs (in MW), not the battery capacity (in kWh).</t>
+  </si>
+  <si>
+    <t>FPC Flexibility Points Provided per Unit Peaker Capacity</t>
+  </si>
+  <si>
+    <t>Transmission Across Modeled Region Border</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1545,12 +1550,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1617,6 +1625,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4EF-44DF-A553-7223C81C8D38}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1666,6 +1679,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A4EF-44DF-A553-7223C81C8D38}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1788,7 +1806,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1909,6 +1927,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC7B-4899-B8D5-594077E3EE1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2109,7 +2132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2144,7 +2167,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2365,7 +2388,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2375,7 +2398,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2390,12 +2413,12 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,7 +2438,7 @@
     </row>
     <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2695,27 +2718,27 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -2936,7 +2959,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B2" s="86">
         <f>'Transmission Connectivity'!B60</f>
@@ -5194,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="38">
-        <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
+        <f>'CA Interties'!$B$11*'FPC-FPPpUTCAMRB'!$B$2</f>
         <v>30716</v>
       </c>
       <c r="G2" s="72">
@@ -5225,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="38">
-        <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
+        <f>'CA Interties'!$B$11*'FPC-FPPpUTCAMRB'!$B$2</f>
         <v>30716</v>
       </c>
       <c r="G3" s="72">
@@ -5256,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="38">
-        <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
+        <f>'CA Interties'!$B$11*'FPC-FPPpUTCAMRB'!$B$2</f>
         <v>30716</v>
       </c>
       <c r="G4" s="72">
@@ -5289,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="38">
-        <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
+        <f>'CA Interties'!$B$11*'FPC-FPPpUTCAMRB'!$B$2</f>
         <v>30716</v>
       </c>
       <c r="G5" s="72">
@@ -5322,7 +5345,7 @@
         <v>7199.9999999999991</v>
       </c>
       <c r="F6" s="38">
-        <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
+        <f>'CA Interties'!$B$11*'FPC-FPPpUTCAMRB'!$B$2</f>
         <v>30716</v>
       </c>
       <c r="G6" s="72">
@@ -5355,7 +5378,7 @@
         <v>7199.9999999999991</v>
       </c>
       <c r="F7" s="38">
-        <f>'CA Interties'!$B$11*'FPC-FPPpUTCaMRB'!$B$2</f>
+        <f>'CA Interties'!$B$11*'FPC-FPPpUTCAMRB'!$B$2</f>
         <v>30716</v>
       </c>
       <c r="G7" s="72">
@@ -5701,7 +5724,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5734,7 +5757,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5760,52 +5783,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5826,12 +5849,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B2">
         <v>1.4</v>
@@ -5963,42 +5986,42 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="87" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="90" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="90" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6006,12 +6029,12 @@
     </row>
     <row r="19" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="90" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="90" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B20" s="91">
         <v>0.5</v>
@@ -6019,18 +6042,18 @@
     </row>
     <row r="21" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="90" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B21" s="91">
         <v>0.75</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="90" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B22" s="91">
         <v>0.8</v>
@@ -6038,7 +6061,7 @@
     </row>
     <row r="23" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="90" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B23" s="91">
         <v>0.2</v>
@@ -6049,7 +6072,7 @@
     </row>
     <row r="25" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="89" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B25" s="97">
         <f>D3*B20*B21*B22*B23</f>
@@ -6061,12 +6084,12 @@
     </row>
     <row r="27" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="90" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
@@ -6078,46 +6101,46 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="89" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B30" s="93" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C30" s="89" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B31" s="94">
         <v>1.3</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B32" s="94">
         <v>6.6</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B33" s="94">
         <v>120</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6127,48 +6150,48 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
     </row>
     <row r="36" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="89" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B42" s="92" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B43" s="95">
         <f>B31/10^3</f>
@@ -6177,7 +6200,7 @@
     </row>
     <row r="44" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B44" s="95">
         <f t="shared" ref="B44:B45" si="2">B32/10^3</f>
@@ -6186,7 +6209,7 @@
     </row>
     <row r="45" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B45" s="95">
         <f t="shared" si="2"/>
@@ -6196,27 +6219,27 @@
     <row r="46" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="89" t="s">
+        <v>329</v>
+      </c>
+      <c r="B49" s="92" t="s">
+        <v>330</v>
+      </c>
+      <c r="C49" s="92" t="s">
         <v>331</v>
       </c>
-      <c r="B49" s="92" t="s">
+      <c r="D49" s="92" t="s">
         <v>332</v>
-      </c>
-      <c r="C49" s="92" t="s">
-        <v>333</v>
-      </c>
-      <c r="D49" s="92" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B50" s="91">
         <v>0.6</v>
@@ -6230,7 +6253,7 @@
     </row>
     <row r="51" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B51" s="91">
         <v>0</v>
@@ -6244,7 +6267,7 @@
     </row>
     <row r="52" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B52" s="91">
         <v>1</v>
@@ -6259,13 +6282,13 @@
     <row r="53" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="38"/>
@@ -6273,16 +6296,16 @@
     </row>
     <row r="57" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="89" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B57" s="89" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D57" s="89"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B58" s="98">
         <f>B$25*(B50*B$43+C50*B$44+D50*B$45)</f>
@@ -6293,7 +6316,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B59" s="98">
         <f t="shared" ref="B59:B60" si="3">B$25*(B51*B$43+C51*B$44+D51*B$45)</f>
@@ -6304,7 +6327,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B60" s="98">
         <f t="shared" si="3"/>
@@ -6358,7 +6381,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B2" s="4">
         <f>'Flexibility Points'!D2</f>
@@ -6426,7 +6449,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" s="4">
         <f>'Flexibility Points'!D3</f>
@@ -6494,7 +6517,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6521,12 +6544,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B2" s="88">
         <f>'Flexibility Points'!B58</f>
@@ -6535,7 +6558,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B3" s="88">
         <f>'Flexibility Points'!B59</f>
@@ -6544,7 +6567,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6552,7 +6575,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6560,7 +6583,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6568,7 +6591,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B7" s="88">
         <f>'Flexibility Points'!B60</f>
@@ -6902,22 +6925,22 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="85" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
@@ -7029,7 +7052,7 @@
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B68">
         <v>175797872.34042555</v>
